--- a/Lastmanagement.xlsx
+++ b/Lastmanagement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e615c91372c03226/Desktop/Master Hda/3. Semester/Projektmanagement/0400 Logistik/Lastmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="11_AD4DB114E441178AC67DF41C1ED4DF48693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{990758ED-BE4E-4835-BF32-4105611BE36E}"/>
+  <xr:revisionPtr revIDLastSave="321" documentId="11_AD4DB114E441178AC67DF41C1ED4DF48693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{813A6B27-956E-424E-9B4B-3B3BD42CE443}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-4510" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29040" yWindow="350" windowWidth="17280" windowHeight="8900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wasserstoff" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="107">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -354,6 +354,9 @@
   </si>
   <si>
     <t>Tag</t>
+  </si>
+  <si>
+    <t>Wasserbedarf [Liter]</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K193"/>
+  <dimension ref="A1:R193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -723,9 +726,10 @@
     <col min="6" max="6" width="37.9453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37.68359375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>105</v>
       </c>
@@ -750,8 +754,11 @@
       <c r="H1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5">
         <v>45960</v>
       </c>
@@ -766,7 +773,7 @@
         <v>389.25</v>
       </c>
       <c r="E2" s="3">
-        <f>D2/$K$5</f>
+        <f>D2/$R$5</f>
         <v>1</v>
       </c>
       <c r="F2" t="str">
@@ -788,8 +795,12 @@
         <f>IF(AND(F2="wird nicht betankt",G2="keine Nachtruhe"),"Elektrolyseur darf","Elektrolyseur darf nicht")</f>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2">
+        <f>ROUND(IF(AND(H2="Elektrolyseur darf", C2=22.125),C2*14.83,0),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5">
         <v>45960</v>
       </c>
@@ -804,7 +815,7 @@
         <v>389.25</v>
       </c>
       <c r="E3" s="3">
-        <f>D3/$K$5</f>
+        <f>D3/$R$5</f>
         <v>1</v>
       </c>
       <c r="F3" t="str">
@@ -826,8 +837,12 @@
         <f t="shared" ref="H3:H66" si="2">IF(AND(F3="wird nicht betankt",G3="keine Nachtruhe"),"Elektrolyseur darf","Elektrolyseur darf nicht")</f>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="3">ROUND(IF(AND(H3="Elektrolyseur darf", C3=22.125),C3*14.83,0),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <v>45960</v>
       </c>
@@ -838,11 +853,11 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D67" si="3">IF((D3+C4)&gt; 389.25, 389.25,(D3+C4))</f>
+        <f t="shared" ref="D4:D67" si="4">IF((D3+C4)&gt; 389.25, 389.25,(D3+C4))</f>
         <v>389.25</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" ref="E4:E66" si="4">D4/$K$5</f>
+        <f t="shared" ref="E4:E66" si="5">D4/$R$5</f>
         <v>1</v>
       </c>
       <c r="F4" t="str">
@@ -857,11 +872,15 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-      <c r="K4" t="s">
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5">
         <v>45960</v>
       </c>
@@ -872,11 +891,11 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F5" t="str">
@@ -891,11 +910,15 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-      <c r="K5">
-        <v>389.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>389.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5">
         <v>45960</v>
       </c>
@@ -906,11 +929,11 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F6" t="str">
@@ -925,11 +948,15 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5">
         <v>45960</v>
       </c>
@@ -940,11 +967,11 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F7" t="str">
@@ -959,11 +986,15 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-      <c r="K7">
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>21.75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5">
         <v>45960</v>
       </c>
@@ -974,11 +1005,11 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F8" t="str">
@@ -993,8 +1024,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5">
         <v>45960</v>
       </c>
@@ -1005,11 +1040,11 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F9" t="str">
@@ -1024,8 +1059,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5">
         <v>45960</v>
       </c>
@@ -1036,11 +1075,11 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F10" t="str">
@@ -1055,8 +1094,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5">
         <v>45960</v>
       </c>
@@ -1067,11 +1110,11 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F11" t="str">
@@ -1086,8 +1129,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5">
         <v>45960</v>
       </c>
@@ -1098,11 +1145,11 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F12" t="str">
@@ -1117,8 +1164,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5">
         <v>45960</v>
       </c>
@@ -1129,11 +1180,11 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F13" t="str">
@@ -1148,8 +1199,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="5">
         <v>45960</v>
       </c>
@@ -1160,11 +1215,11 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F14" t="str">
@@ -1179,8 +1234,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5">
         <v>45960</v>
       </c>
@@ -1191,11 +1250,11 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F15" t="str">
@@ -1210,8 +1269,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5">
         <v>45960</v>
       </c>
@@ -1222,11 +1285,11 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F16" t="str">
@@ -1241,8 +1304,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5">
         <v>45960</v>
       </c>
@@ -1253,11 +1320,11 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F17" t="str">
@@ -1272,8 +1339,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5">
         <v>45960</v>
       </c>
@@ -1284,11 +1355,11 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F18" t="str">
@@ -1303,8 +1374,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5">
         <v>45960</v>
       </c>
@@ -1315,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F19" t="str">
@@ -1334,8 +1409,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5">
         <v>45960</v>
       </c>
@@ -1346,11 +1425,11 @@
         <v>-21.75</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>367.5</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94412331406551064</v>
       </c>
       <c r="F20" t="str">
@@ -1365,8 +1444,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5">
         <v>45960</v>
       </c>
@@ -1377,11 +1460,11 @@
         <v>-21.75</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>345.75</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88824662813102118</v>
       </c>
       <c r="F21" t="str">
@@ -1396,8 +1479,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5">
         <v>45960</v>
       </c>
@@ -1408,11 +1495,11 @@
         <v>-21.75</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83236994219653182</v>
       </c>
       <c r="F22" t="str">
@@ -1427,8 +1514,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5">
         <v>45960</v>
       </c>
@@ -1439,11 +1530,11 @@
         <v>-21.75</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>302.25</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77649325626204235</v>
       </c>
       <c r="F23" t="str">
@@ -1458,8 +1549,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5">
         <v>45960</v>
       </c>
@@ -1470,11 +1565,11 @@
         <v>-21.75</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>280.5</v>
       </c>
       <c r="E24" s="3">
-        <f>D24/$K$5</f>
+        <f>D24/$R$5</f>
         <v>0.720616570327553</v>
       </c>
       <c r="F24" t="str">
@@ -1489,8 +1584,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5">
         <v>45960</v>
       </c>
@@ -1501,11 +1600,11 @@
         <v>-21.75</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>258.75</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66473988439306353</v>
       </c>
       <c r="F25" t="str">
@@ -1520,8 +1619,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="5">
         <v>45960</v>
       </c>
@@ -1532,11 +1635,11 @@
         <v>-21.75</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
       <c r="E26" s="3">
-        <f>D26/$K$5</f>
+        <f>D26/$R$5</f>
         <v>0.60886319845857417</v>
       </c>
       <c r="F26" t="str">
@@ -1551,8 +1654,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5">
         <v>45960</v>
       </c>
@@ -1563,11 +1670,11 @@
         <v>-21.75</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>215.25</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55298651252408482</v>
       </c>
       <c r="F27" t="str">
@@ -1582,8 +1689,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="5">
         <v>45960</v>
       </c>
@@ -1594,11 +1705,11 @@
         <v>22.125</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>237.375</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.60982658959537572</v>
       </c>
       <c r="F28" t="str">
@@ -1613,8 +1724,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="5">
         <v>45960</v>
       </c>
@@ -1625,11 +1740,11 @@
         <v>22.125</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>259.5</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F29" t="str">
@@ -1644,8 +1759,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="5">
         <v>45960</v>
       </c>
@@ -1656,11 +1775,11 @@
         <v>22.125</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>281.625</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.72350674373795765</v>
       </c>
       <c r="F30" t="str">
@@ -1675,8 +1794,12 @@
         <f>IF(AND(F30="wird nicht betankt",G30="keine Nachtruhe"),"Elektrolyseur darf","Elektrolyseur darf nicht")</f>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="5">
         <v>45960</v>
       </c>
@@ -1687,11 +1810,11 @@
         <v>22.125</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>303.75</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.78034682080924855</v>
       </c>
       <c r="F31" t="str">
@@ -1706,8 +1829,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="5">
         <v>45960</v>
       </c>
@@ -1718,11 +1845,11 @@
         <v>22.125</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>325.875</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83718689788053946</v>
       </c>
       <c r="F32" t="str">
@@ -1737,8 +1864,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="5">
         <v>45960</v>
       </c>
@@ -1749,11 +1880,11 @@
         <v>22.125</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>348</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89402697495183048</v>
       </c>
       <c r="F33" t="str">
@@ -1768,8 +1899,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="5">
         <v>45960</v>
       </c>
@@ -1780,11 +1915,11 @@
         <v>22.125</v>
       </c>
       <c r="D34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>370.125</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.95086705202312138</v>
       </c>
       <c r="F34" t="str">
@@ -1799,8 +1934,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="5">
         <v>45960</v>
       </c>
@@ -1811,11 +1950,11 @@
         <v>22.125</v>
       </c>
       <c r="D35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F35" t="str">
@@ -1830,8 +1969,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="5">
         <v>45960</v>
       </c>
@@ -1842,11 +1985,11 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F36" t="str">
@@ -1861,8 +2004,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="5">
         <v>45960</v>
       </c>
@@ -1873,11 +2020,11 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F37" t="str">
@@ -1892,8 +2039,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="5">
         <v>45960</v>
       </c>
@@ -1904,11 +2055,11 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F38" t="str">
@@ -1923,8 +2074,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="5">
         <v>45960</v>
       </c>
@@ -1935,11 +2090,11 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F39" t="str">
@@ -1954,8 +2109,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="5">
         <v>45960</v>
       </c>
@@ -1966,11 +2125,11 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F40" t="str">
@@ -1985,8 +2144,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="5">
         <v>45960</v>
       </c>
@@ -1997,11 +2160,11 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F41" t="str">
@@ -2016,8 +2179,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="5">
         <v>45960</v>
       </c>
@@ -2028,11 +2195,11 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F42" t="str">
@@ -2047,8 +2214,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="5">
         <v>45960</v>
       </c>
@@ -2059,11 +2230,11 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F43" t="str">
@@ -2078,8 +2249,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="5">
         <v>45960</v>
       </c>
@@ -2090,11 +2265,11 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F44" t="str">
@@ -2109,8 +2284,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="5">
         <v>45960</v>
       </c>
@@ -2121,11 +2300,11 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F45" t="str">
@@ -2140,8 +2319,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="5">
         <v>45960</v>
       </c>
@@ -2152,11 +2335,11 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F46" t="str">
@@ -2171,8 +2354,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="5">
         <v>45960</v>
       </c>
@@ -2183,11 +2370,11 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F47" t="str">
@@ -2202,8 +2389,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="5">
         <v>45960</v>
       </c>
@@ -2214,11 +2405,11 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F48" t="str">
@@ -2233,8 +2424,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="5">
         <v>45960</v>
       </c>
@@ -2245,11 +2440,11 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F49" t="str">
@@ -2264,8 +2459,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="5">
         <v>45960</v>
       </c>
@@ -2276,11 +2475,11 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F50" t="str">
@@ -2295,8 +2494,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="5">
         <v>45960</v>
       </c>
@@ -2307,11 +2510,11 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F51" t="str">
@@ -2326,8 +2529,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="5">
         <v>45960</v>
       </c>
@@ -2338,11 +2545,11 @@
         <v>-21.75</v>
       </c>
       <c r="D52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>367.5</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94412331406551064</v>
       </c>
       <c r="F52" t="str">
@@ -2357,8 +2564,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="5">
         <v>45960</v>
       </c>
@@ -2369,11 +2580,11 @@
         <v>-21.75</v>
       </c>
       <c r="D53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>345.75</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.88824662813102118</v>
       </c>
       <c r="F53" t="str">
@@ -2388,8 +2599,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="5">
         <v>45960</v>
       </c>
@@ -2400,11 +2615,11 @@
         <v>-21.75</v>
       </c>
       <c r="D54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>324</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83236994219653182</v>
       </c>
       <c r="F54" t="str">
@@ -2419,8 +2634,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="5">
         <v>45960</v>
       </c>
@@ -2431,11 +2650,11 @@
         <v>-21.75</v>
       </c>
       <c r="D55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>302.25</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.77649325626204235</v>
       </c>
       <c r="F55" t="str">
@@ -2450,8 +2669,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="5">
         <v>45960</v>
       </c>
@@ -2462,11 +2685,11 @@
         <v>-21.75</v>
       </c>
       <c r="D56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>280.5</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.720616570327553</v>
       </c>
       <c r="F56" t="str">
@@ -2481,8 +2704,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="5">
         <v>45960</v>
       </c>
@@ -2493,11 +2720,11 @@
         <v>22.125</v>
       </c>
       <c r="D57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>302.625</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.7774566473988439</v>
       </c>
       <c r="F57" t="str">
@@ -2512,8 +2739,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="5">
         <v>45960</v>
       </c>
@@ -2524,11 +2755,11 @@
         <v>22.125</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>324.75</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.83429672447013492</v>
       </c>
       <c r="F58" t="str">
@@ -2543,8 +2774,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="5">
         <v>45960</v>
       </c>
@@ -2555,11 +2790,11 @@
         <v>22.125</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>346.875</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89113680154142583</v>
       </c>
       <c r="F59" t="str">
@@ -2574,8 +2809,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="5">
         <v>45960</v>
       </c>
@@ -2586,11 +2825,11 @@
         <v>22.125</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>369</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.94797687861271673</v>
       </c>
       <c r="F60" t="str">
@@ -2605,8 +2844,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="5">
         <v>45960</v>
       </c>
@@ -2617,11 +2860,11 @@
         <v>22.125</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F61" t="str">
@@ -2636,8 +2879,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="5">
         <v>45960</v>
       </c>
@@ -2648,11 +2895,11 @@
         <v>0</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F62" t="str">
@@ -2667,8 +2914,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="5">
         <v>45960</v>
       </c>
@@ -2679,11 +2930,11 @@
         <v>0</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F63" t="str">
@@ -2698,8 +2949,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="5">
         <v>45960</v>
       </c>
@@ -2710,11 +2965,11 @@
         <v>0</v>
       </c>
       <c r="D64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F64" t="str">
@@ -2729,8 +2984,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="5">
         <v>45960</v>
       </c>
@@ -2741,11 +3000,11 @@
         <v>0</v>
       </c>
       <c r="D65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F65" t="str">
@@ -2760,8 +3019,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="5">
         <v>45960</v>
       </c>
@@ -2772,11 +3035,11 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F66" t="str">
@@ -2791,8 +3054,12 @@
         <f t="shared" si="2"/>
         <v>Elektrolyseur darf</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="5">
         <v>45960</v>
       </c>
@@ -2803,15 +3070,15 @@
         <v>0</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>389.25</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" ref="E67:E130" si="5">D67/$K$5</f>
+        <f t="shared" ref="E67:E130" si="6">D67/$R$5</f>
         <v>1</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F96" si="6">IF(OR(
+        <f t="shared" ref="F67:F96" si="7">IF(OR(
     AND(TIMEVALUE(MID(B67,1,5))&gt;=TIME(4,30,0),TIMEVALUE(MID(B67,1,5))&lt;TIME(6,30,0)),
     AND(TIMEVALUE(MID(B67,1,5))&gt;=TIME(12,30,0),TIMEVALUE(MID(B67,1,5))&lt;TIME(13,30,0)),
     AND(TIMEVALUE(MID(B67,1,5))&gt;=TIME(19,0,0),TIMEVALUE(MID(B67,1,5))&lt;TIME(21,0,0))
@@ -2819,18 +3086,22 @@
         <v>wird nicht betankt</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G130" si="7">IF(OR(
+        <f t="shared" ref="G67:G130" si="8">IF(OR(
     TIMEVALUE(MID(B67,1,5))&gt;=TIME(22,0,0),
     TIMEVALUE(MID(B67,1,5))&lt;TIME(6,0,0)
 ),"Nachtruhe","keine Nachtruhe")</f>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ref="H67:H130" si="8">IF(AND(F67="wird nicht betankt",G67="keine Nachtruhe"),"Elektrolyseur darf","Elektrolyseur darf nicht")</f>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="H67:H130" si="9">IF(AND(F67="wird nicht betankt",G67="keine Nachtruhe"),"Elektrolyseur darf","Elektrolyseur darf nicht")</f>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="10">ROUND(IF(AND(H67="Elektrolyseur darf", C67=22.125),C67*14.83,0),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="5">
         <v>45960</v>
       </c>
@@ -2841,27 +3112,31 @@
         <v>0</v>
       </c>
       <c r="D68">
-        <f t="shared" ref="D68:D96" si="9">IF((D67+C68)&gt; 389.25, 389.25,(D67+C68))</f>
+        <f t="shared" ref="D68:D96" si="11">IF((D67+C68)&gt; 389.25, 389.25,(D67+C68))</f>
         <v>389.25</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H68" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="5">
         <v>45960</v>
       </c>
@@ -2872,27 +3147,31 @@
         <v>0</v>
       </c>
       <c r="D69">
+        <f t="shared" si="11"/>
+        <v>389.25</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H69" t="str">
         <f t="shared" si="9"/>
-        <v>389.25</v>
-      </c>
-      <c r="E69" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="5">
         <v>45960</v>
       </c>
@@ -2903,27 +3182,31 @@
         <v>0</v>
       </c>
       <c r="D70">
+        <f t="shared" si="11"/>
+        <v>389.25</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H70" t="str">
         <f t="shared" si="9"/>
-        <v>389.25</v>
-      </c>
-      <c r="E70" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="5">
         <v>45960</v>
       </c>
@@ -2934,27 +3217,31 @@
         <v>0</v>
       </c>
       <c r="D71">
+        <f t="shared" si="11"/>
+        <v>389.25</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H71" t="str">
         <f t="shared" si="9"/>
-        <v>389.25</v>
-      </c>
-      <c r="E71" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F71" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H71" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="5">
         <v>45960</v>
       </c>
@@ -2965,27 +3252,31 @@
         <v>0</v>
       </c>
       <c r="D72">
+        <f t="shared" si="11"/>
+        <v>389.25</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H72" t="str">
         <f t="shared" si="9"/>
-        <v>389.25</v>
-      </c>
-      <c r="E72" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F72" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H72" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="5">
         <v>45960</v>
       </c>
@@ -2996,27 +3287,31 @@
         <v>0</v>
       </c>
       <c r="D73">
+        <f t="shared" si="11"/>
+        <v>389.25</v>
+      </c>
+      <c r="E73" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H73" t="str">
         <f t="shared" si="9"/>
-        <v>389.25</v>
-      </c>
-      <c r="E73" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H73" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="5">
         <v>45960</v>
       </c>
@@ -3027,27 +3322,31 @@
         <v>0</v>
       </c>
       <c r="D74">
+        <f t="shared" si="11"/>
+        <v>389.25</v>
+      </c>
+      <c r="E74" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" si="9"/>
-        <v>389.25</v>
-      </c>
-      <c r="E74" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F74" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H74" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="5">
         <v>45960</v>
       </c>
@@ -3058,27 +3357,31 @@
         <v>0</v>
       </c>
       <c r="D75">
+        <f t="shared" si="11"/>
+        <v>389.25</v>
+      </c>
+      <c r="E75" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H75" t="str">
         <f t="shared" si="9"/>
-        <v>389.25</v>
-      </c>
-      <c r="E75" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F75" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H75" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="5">
         <v>45960</v>
       </c>
@@ -3089,27 +3392,31 @@
         <v>0</v>
       </c>
       <c r="D76">
+        <f t="shared" si="11"/>
+        <v>389.25</v>
+      </c>
+      <c r="E76" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H76" t="str">
         <f t="shared" si="9"/>
-        <v>389.25</v>
-      </c>
-      <c r="E76" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F76" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="5">
         <v>45960</v>
       </c>
@@ -3120,27 +3427,31 @@
         <v>0</v>
       </c>
       <c r="D77">
+        <f t="shared" si="11"/>
+        <v>389.25</v>
+      </c>
+      <c r="E77" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H77" t="str">
         <f t="shared" si="9"/>
-        <v>389.25</v>
-      </c>
-      <c r="E77" s="3">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="F77" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="5">
         <v>45960</v>
       </c>
@@ -3151,27 +3462,31 @@
         <v>-21.75</v>
       </c>
       <c r="D78">
+        <f t="shared" si="11"/>
+        <v>367.5</v>
+      </c>
+      <c r="E78" s="3">
+        <f t="shared" si="6"/>
+        <v>0.94412331406551064</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="7"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H78" t="str">
         <f t="shared" si="9"/>
-        <v>367.5</v>
-      </c>
-      <c r="E78" s="3">
-        <f t="shared" si="5"/>
-        <v>0.94412331406551064</v>
-      </c>
-      <c r="F78" t="str">
-        <f t="shared" si="6"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H78" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="5">
         <v>45960</v>
       </c>
@@ -3182,27 +3497,31 @@
         <v>-21.75</v>
       </c>
       <c r="D79">
+        <f t="shared" si="11"/>
+        <v>345.75</v>
+      </c>
+      <c r="E79" s="3">
+        <f t="shared" si="6"/>
+        <v>0.88824662813102118</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="7"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H79" t="str">
         <f t="shared" si="9"/>
-        <v>345.75</v>
-      </c>
-      <c r="E79" s="3">
-        <f t="shared" si="5"/>
-        <v>0.88824662813102118</v>
-      </c>
-      <c r="F79" t="str">
-        <f t="shared" si="6"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H79" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="5">
         <v>45960</v>
       </c>
@@ -3213,27 +3532,31 @@
         <v>-21.75</v>
       </c>
       <c r="D80">
+        <f t="shared" si="11"/>
+        <v>324</v>
+      </c>
+      <c r="E80" s="3">
+        <f t="shared" si="6"/>
+        <v>0.83236994219653182</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="7"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H80" t="str">
         <f t="shared" si="9"/>
-        <v>324</v>
-      </c>
-      <c r="E80" s="3">
-        <f t="shared" si="5"/>
-        <v>0.83236994219653182</v>
-      </c>
-      <c r="F80" t="str">
-        <f t="shared" si="6"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H80" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="5">
         <v>45960</v>
       </c>
@@ -3244,27 +3567,31 @@
         <v>-21.75</v>
       </c>
       <c r="D81">
+        <f t="shared" si="11"/>
+        <v>302.25</v>
+      </c>
+      <c r="E81" s="3">
+        <f t="shared" si="6"/>
+        <v>0.77649325626204235</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="7"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" si="9"/>
-        <v>302.25</v>
-      </c>
-      <c r="E81" s="3">
-        <f t="shared" si="5"/>
-        <v>0.77649325626204235</v>
-      </c>
-      <c r="F81" t="str">
-        <f t="shared" si="6"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H81" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="5">
         <v>45960</v>
       </c>
@@ -3275,27 +3602,31 @@
         <v>-21.75</v>
       </c>
       <c r="D82">
+        <f t="shared" si="11"/>
+        <v>280.5</v>
+      </c>
+      <c r="E82" s="3">
+        <f t="shared" si="6"/>
+        <v>0.720616570327553</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="7"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H82" t="str">
         <f t="shared" si="9"/>
-        <v>280.5</v>
-      </c>
-      <c r="E82" s="3">
-        <f t="shared" si="5"/>
-        <v>0.720616570327553</v>
-      </c>
-      <c r="F82" t="str">
-        <f t="shared" si="6"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H82" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="5">
         <v>45960</v>
       </c>
@@ -3306,27 +3637,31 @@
         <v>-21.75</v>
       </c>
       <c r="D83">
+        <f t="shared" si="11"/>
+        <v>258.75</v>
+      </c>
+      <c r="E83" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66473988439306353</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="7"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H83" t="str">
         <f t="shared" si="9"/>
-        <v>258.75</v>
-      </c>
-      <c r="E83" s="3">
-        <f t="shared" si="5"/>
-        <v>0.66473988439306353</v>
-      </c>
-      <c r="F83" t="str">
-        <f t="shared" si="6"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H83" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="5">
         <v>45960</v>
       </c>
@@ -3337,27 +3672,31 @@
         <v>-21.75</v>
       </c>
       <c r="D84">
+        <f t="shared" si="11"/>
+        <v>237</v>
+      </c>
+      <c r="E84" s="3">
+        <f t="shared" si="6"/>
+        <v>0.60886319845857417</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="7"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H84" t="str">
         <f t="shared" si="9"/>
-        <v>237</v>
-      </c>
-      <c r="E84" s="3">
-        <f t="shared" si="5"/>
-        <v>0.60886319845857417</v>
-      </c>
-      <c r="F84" t="str">
-        <f t="shared" si="6"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H84" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="5">
         <v>45960</v>
       </c>
@@ -3368,27 +3707,31 @@
         <v>-21.75</v>
       </c>
       <c r="D85">
+        <f t="shared" si="11"/>
+        <v>215.25</v>
+      </c>
+      <c r="E85" s="3">
+        <f t="shared" si="6"/>
+        <v>0.55298651252408482</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="7"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H85" t="str">
         <f t="shared" si="9"/>
-        <v>215.25</v>
-      </c>
-      <c r="E85" s="3">
-        <f t="shared" si="5"/>
-        <v>0.55298651252408482</v>
-      </c>
-      <c r="F85" t="str">
-        <f t="shared" si="6"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H85" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="5">
         <v>45960</v>
       </c>
@@ -3399,27 +3742,31 @@
         <v>22.125</v>
       </c>
       <c r="D86">
+        <f t="shared" si="11"/>
+        <v>237.375</v>
+      </c>
+      <c r="E86" s="3">
+        <f t="shared" si="6"/>
+        <v>0.60982658959537572</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H86" t="str">
         <f t="shared" si="9"/>
-        <v>237.375</v>
-      </c>
-      <c r="E86" s="3">
-        <f t="shared" si="5"/>
-        <v>0.60982658959537572</v>
-      </c>
-      <c r="F86" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H86" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="10"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="5">
         <v>45960</v>
       </c>
@@ -3430,27 +3777,31 @@
         <v>22.125</v>
       </c>
       <c r="D87">
+        <f t="shared" si="11"/>
+        <v>259.5</v>
+      </c>
+      <c r="E87" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H87" t="str">
         <f t="shared" si="9"/>
-        <v>259.5</v>
-      </c>
-      <c r="E87" s="3">
-        <f t="shared" si="5"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F87" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H87" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="10"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="5">
         <v>45960</v>
       </c>
@@ -3461,27 +3812,31 @@
         <v>22.125</v>
       </c>
       <c r="D88">
+        <f t="shared" si="11"/>
+        <v>281.625</v>
+      </c>
+      <c r="E88" s="3">
+        <f t="shared" si="6"/>
+        <v>0.72350674373795765</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H88" t="str">
         <f t="shared" si="9"/>
-        <v>281.625</v>
-      </c>
-      <c r="E88" s="3">
-        <f t="shared" si="5"/>
-        <v>0.72350674373795765</v>
-      </c>
-      <c r="F88" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H88" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="10"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="5">
         <v>45960</v>
       </c>
@@ -3492,27 +3847,31 @@
         <v>22.125</v>
       </c>
       <c r="D89">
+        <f t="shared" si="11"/>
+        <v>303.75</v>
+      </c>
+      <c r="E89" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H89" t="str">
         <f t="shared" si="9"/>
-        <v>303.75</v>
-      </c>
-      <c r="E89" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F89" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H89" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="10"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="5">
         <v>45960</v>
       </c>
@@ -3523,27 +3882,31 @@
         <v>0</v>
       </c>
       <c r="D90">
+        <f t="shared" si="11"/>
+        <v>303.75</v>
+      </c>
+      <c r="E90" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H90" t="str">
         <f t="shared" si="9"/>
-        <v>303.75</v>
-      </c>
-      <c r="E90" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F90" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G90" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H90" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="5">
         <v>45960</v>
       </c>
@@ -3554,27 +3917,31 @@
         <v>0</v>
       </c>
       <c r="D91">
+        <f t="shared" si="11"/>
+        <v>303.75</v>
+      </c>
+      <c r="E91" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H91" t="str">
         <f t="shared" si="9"/>
-        <v>303.75</v>
-      </c>
-      <c r="E91" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F91" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H91" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="5">
         <v>45960</v>
       </c>
@@ -3585,27 +3952,31 @@
         <v>0</v>
       </c>
       <c r="D92">
+        <f t="shared" si="11"/>
+        <v>303.75</v>
+      </c>
+      <c r="E92" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H92" t="str">
         <f t="shared" si="9"/>
-        <v>303.75</v>
-      </c>
-      <c r="E92" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F92" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H92" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="5">
         <v>45960</v>
       </c>
@@ -3616,27 +3987,31 @@
         <v>0</v>
       </c>
       <c r="D93">
+        <f t="shared" si="11"/>
+        <v>303.75</v>
+      </c>
+      <c r="E93" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H93" t="str">
         <f t="shared" si="9"/>
-        <v>303.75</v>
-      </c>
-      <c r="E93" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F93" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H93" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="5">
         <v>45960</v>
       </c>
@@ -3647,27 +4022,31 @@
         <v>0</v>
       </c>
       <c r="D94">
+        <f t="shared" si="11"/>
+        <v>303.75</v>
+      </c>
+      <c r="E94" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H94" t="str">
         <f t="shared" si="9"/>
-        <v>303.75</v>
-      </c>
-      <c r="E94" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F94" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H94" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="5">
         <v>45960</v>
       </c>
@@ -3678,27 +4057,31 @@
         <v>0</v>
       </c>
       <c r="D95">
+        <f t="shared" si="11"/>
+        <v>303.75</v>
+      </c>
+      <c r="E95" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H95" t="str">
         <f t="shared" si="9"/>
-        <v>303.75</v>
-      </c>
-      <c r="E95" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F95" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H95" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="5">
         <v>45960</v>
       </c>
@@ -3709,27 +4092,31 @@
         <v>0</v>
       </c>
       <c r="D96">
+        <f t="shared" si="11"/>
+        <v>303.75</v>
+      </c>
+      <c r="E96" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="7"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H96" t="str">
         <f t="shared" si="9"/>
-        <v>303.75</v>
-      </c>
-      <c r="E96" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F96" t="str">
-        <f t="shared" si="6"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G96" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H96" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="5">
         <v>45960</v>
       </c>
@@ -3744,7 +4131,7 @@
         <v>303.75</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.78034682080924855</v>
       </c>
       <c r="F97" t="str">
@@ -3756,15 +4143,19 @@
         <v>wird nicht betankt</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="5">
         <v>45961</v>
       </c>
@@ -3775,15 +4166,15 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <f t="shared" ref="D98:D161" si="10">IF((D97+C98)&gt; 389.25, 389.25,(D97+C98))</f>
+        <f t="shared" ref="D98:D161" si="12">IF((D97+C98)&gt; 389.25, 389.25,(D97+C98))</f>
         <v>303.75</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.78034682080924855</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" ref="F98:F161" si="11">IF(OR(
+        <f t="shared" ref="F98:F161" si="13">IF(OR(
     AND(TIMEVALUE(MID(B98,1,5))&gt;=TIME(4,30,0),TIMEVALUE(MID(B98,1,5))&lt;TIME(6,30,0)),
     AND(TIMEVALUE(MID(B98,1,5))&gt;=TIME(12,30,0),TIMEVALUE(MID(B98,1,5))&lt;TIME(13,30,0)),
     AND(TIMEVALUE(MID(B98,1,5))&gt;=TIME(19,0,0),TIMEVALUE(MID(B98,1,5))&lt;TIME(21,0,0))
@@ -3791,15 +4182,19 @@
         <v>wird nicht betankt</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="5">
         <v>45961</v>
       </c>
@@ -3810,27 +4205,31 @@
         <v>0</v>
       </c>
       <c r="D99">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E99" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H99" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E99" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F99" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H99" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="5">
         <v>45961</v>
       </c>
@@ -3841,27 +4240,31 @@
         <v>0</v>
       </c>
       <c r="D100">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E100" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H100" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E100" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F100" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H100" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="5">
         <v>45961</v>
       </c>
@@ -3872,27 +4275,31 @@
         <v>0</v>
       </c>
       <c r="D101">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E101" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H101" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E101" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F101" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H101" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="5">
         <v>45961</v>
       </c>
@@ -3903,27 +4310,31 @@
         <v>0</v>
       </c>
       <c r="D102">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E102" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H102" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E102" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F102" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H102" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="5">
         <v>45961</v>
       </c>
@@ -3934,27 +4345,31 @@
         <v>0</v>
       </c>
       <c r="D103">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E103" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H103" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I103">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E103" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F103" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H103" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="5">
         <v>45961</v>
       </c>
@@ -3965,27 +4380,31 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E104" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H104" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I104">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E104" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F104" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H104" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="5">
         <v>45961</v>
       </c>
@@ -3996,27 +4415,31 @@
         <v>0</v>
       </c>
       <c r="D105">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E105" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H105" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I105">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E105" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F105" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H105" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="5">
         <v>45961</v>
       </c>
@@ -4027,27 +4450,31 @@
         <v>0</v>
       </c>
       <c r="D106">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E106" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H106" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I106">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E106" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F106" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H106" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="5">
         <v>45961</v>
       </c>
@@ -4058,27 +4485,31 @@
         <v>0</v>
       </c>
       <c r="D107">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E107" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H107" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I107">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E107" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F107" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H107" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="5">
         <v>45961</v>
       </c>
@@ -4089,27 +4520,31 @@
         <v>0</v>
       </c>
       <c r="D108">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E108" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H108" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I108">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E108" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F108" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H108" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="5">
         <v>45961</v>
       </c>
@@ -4120,27 +4555,31 @@
         <v>0</v>
       </c>
       <c r="D109">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E109" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H109" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I109">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E109" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F109" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H109" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="5">
         <v>45961</v>
       </c>
@@ -4151,27 +4590,31 @@
         <v>0</v>
       </c>
       <c r="D110">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E110" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H110" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I110">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E110" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F110" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H110" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="5">
         <v>45961</v>
       </c>
@@ -4182,27 +4625,31 @@
         <v>0</v>
       </c>
       <c r="D111">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E111" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H111" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I111">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E111" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F111" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G111" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H111" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="5">
         <v>45961</v>
       </c>
@@ -4213,27 +4660,31 @@
         <v>0</v>
       </c>
       <c r="D112">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E112" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H112" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I112">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E112" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F112" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H112" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="5">
         <v>45961</v>
       </c>
@@ -4244,27 +4695,31 @@
         <v>0</v>
       </c>
       <c r="D113">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E113" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H113" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I113">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E113" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F113" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G113" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H113" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="5">
         <v>45961</v>
       </c>
@@ -4275,27 +4730,31 @@
         <v>0</v>
       </c>
       <c r="D114">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E114" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H114" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I114">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E114" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F114" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G114" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H114" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="5">
         <v>45961</v>
       </c>
@@ -4306,27 +4765,31 @@
         <v>0</v>
       </c>
       <c r="D115">
+        <f t="shared" si="12"/>
+        <v>303.75</v>
+      </c>
+      <c r="E115" s="3">
+        <f t="shared" si="6"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H115" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I115">
         <f t="shared" si="10"/>
-        <v>303.75</v>
-      </c>
-      <c r="E115" s="3">
-        <f t="shared" si="5"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F115" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G115" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H115" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="5">
         <v>45961</v>
       </c>
@@ -4337,27 +4800,31 @@
         <v>-21.75</v>
       </c>
       <c r="D116">
+        <f t="shared" si="12"/>
+        <v>282</v>
+      </c>
+      <c r="E116" s="3">
+        <f t="shared" si="6"/>
+        <v>0.7244701348747592</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="13"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H116" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I116">
         <f t="shared" si="10"/>
-        <v>282</v>
-      </c>
-      <c r="E116" s="3">
-        <f t="shared" si="5"/>
-        <v>0.7244701348747592</v>
-      </c>
-      <c r="F116" t="str">
-        <f t="shared" si="11"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G116" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H116" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="5">
         <v>45961</v>
       </c>
@@ -4368,27 +4835,31 @@
         <v>-21.75</v>
       </c>
       <c r="D117">
+        <f t="shared" si="12"/>
+        <v>260.25</v>
+      </c>
+      <c r="E117" s="3">
+        <f t="shared" si="6"/>
+        <v>0.66859344894026973</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="13"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H117" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I117">
         <f t="shared" si="10"/>
-        <v>260.25</v>
-      </c>
-      <c r="E117" s="3">
-        <f t="shared" si="5"/>
-        <v>0.66859344894026973</v>
-      </c>
-      <c r="F117" t="str">
-        <f t="shared" si="11"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G117" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H117" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="5">
         <v>45961</v>
       </c>
@@ -4399,27 +4870,31 @@
         <v>-21.75</v>
       </c>
       <c r="D118">
+        <f t="shared" si="12"/>
+        <v>238.5</v>
+      </c>
+      <c r="E118" s="3">
+        <f t="shared" si="6"/>
+        <v>0.61271676300578037</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="13"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H118" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I118">
         <f t="shared" si="10"/>
-        <v>238.5</v>
-      </c>
-      <c r="E118" s="3">
-        <f t="shared" si="5"/>
-        <v>0.61271676300578037</v>
-      </c>
-      <c r="F118" t="str">
-        <f t="shared" si="11"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G118" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H118" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="5">
         <v>45961</v>
       </c>
@@ -4430,27 +4905,31 @@
         <v>-21.75</v>
       </c>
       <c r="D119">
+        <f t="shared" si="12"/>
+        <v>216.75</v>
+      </c>
+      <c r="E119" s="3">
+        <f t="shared" si="6"/>
+        <v>0.55684007707129091</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="13"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H119" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I119">
         <f t="shared" si="10"/>
-        <v>216.75</v>
-      </c>
-      <c r="E119" s="3">
-        <f t="shared" si="5"/>
-        <v>0.55684007707129091</v>
-      </c>
-      <c r="F119" t="str">
-        <f t="shared" si="11"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G119" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H119" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="5">
         <v>45961</v>
       </c>
@@ -4461,27 +4940,31 @@
         <v>-21.75</v>
       </c>
       <c r="D120">
+        <f t="shared" si="12"/>
+        <v>195</v>
+      </c>
+      <c r="E120" s="3">
+        <f t="shared" si="6"/>
+        <v>0.50096339113680155</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="13"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H120" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I120">
         <f t="shared" si="10"/>
-        <v>195</v>
-      </c>
-      <c r="E120" s="3">
-        <f t="shared" si="5"/>
-        <v>0.50096339113680155</v>
-      </c>
-      <c r="F120" t="str">
-        <f t="shared" si="11"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G120" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H120" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="5">
         <v>45961</v>
       </c>
@@ -4492,27 +4975,31 @@
         <v>-21.75</v>
       </c>
       <c r="D121">
+        <f t="shared" si="12"/>
+        <v>173.25</v>
+      </c>
+      <c r="E121" s="3">
+        <f t="shared" si="6"/>
+        <v>0.44508670520231214</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="13"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="8"/>
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H121" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I121">
         <f t="shared" si="10"/>
-        <v>173.25</v>
-      </c>
-      <c r="E121" s="3">
-        <f t="shared" si="5"/>
-        <v>0.44508670520231214</v>
-      </c>
-      <c r="F121" t="str">
-        <f t="shared" si="11"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G121" t="str">
-        <f t="shared" si="7"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H121" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="5">
         <v>45961</v>
       </c>
@@ -4523,27 +5010,31 @@
         <v>-21.75</v>
       </c>
       <c r="D122">
+        <f t="shared" si="12"/>
+        <v>151.5</v>
+      </c>
+      <c r="E122" s="3">
+        <f t="shared" si="6"/>
+        <v>0.38921001926782273</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="13"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H122" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I122">
         <f t="shared" si="10"/>
-        <v>151.5</v>
-      </c>
-      <c r="E122" s="3">
-        <f t="shared" si="5"/>
-        <v>0.38921001926782273</v>
-      </c>
-      <c r="F122" t="str">
-        <f t="shared" si="11"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G122" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H122" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="5">
         <v>45961</v>
       </c>
@@ -4554,27 +5045,31 @@
         <v>-21.75</v>
       </c>
       <c r="D123">
+        <f t="shared" si="12"/>
+        <v>129.75</v>
+      </c>
+      <c r="E123" s="3">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="13"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H123" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I123">
         <f t="shared" si="10"/>
-        <v>129.75</v>
-      </c>
-      <c r="E123" s="3">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F123" t="str">
-        <f t="shared" si="11"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G123" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H123" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="5">
         <v>45961</v>
       </c>
@@ -4585,27 +5080,31 @@
         <v>22.125</v>
       </c>
       <c r="D124">
+        <f t="shared" si="12"/>
+        <v>151.875</v>
+      </c>
+      <c r="E124" s="3">
+        <f t="shared" si="6"/>
+        <v>0.39017341040462428</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H124" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I124">
         <f t="shared" si="10"/>
-        <v>151.875</v>
-      </c>
-      <c r="E124" s="3">
-        <f t="shared" si="5"/>
-        <v>0.39017341040462428</v>
-      </c>
-      <c r="F124" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G124" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H124" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="5">
         <v>45961</v>
       </c>
@@ -4616,27 +5115,31 @@
         <v>22.125</v>
       </c>
       <c r="D125">
+        <f t="shared" si="12"/>
+        <v>174</v>
+      </c>
+      <c r="E125" s="3">
+        <f t="shared" si="6"/>
+        <v>0.44701348747591524</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H125" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I125">
         <f t="shared" si="10"/>
-        <v>174</v>
-      </c>
-      <c r="E125" s="3">
-        <f t="shared" si="5"/>
-        <v>0.44701348747591524</v>
-      </c>
-      <c r="F125" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G125" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H125" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="5">
         <v>45961</v>
       </c>
@@ -4647,27 +5150,31 @@
         <v>22.125</v>
       </c>
       <c r="D126">
+        <f t="shared" si="12"/>
+        <v>196.125</v>
+      </c>
+      <c r="E126" s="3">
+        <f t="shared" si="6"/>
+        <v>0.5038535645472062</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H126" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I126">
         <f t="shared" si="10"/>
-        <v>196.125</v>
-      </c>
-      <c r="E126" s="3">
-        <f t="shared" si="5"/>
-        <v>0.5038535645472062</v>
-      </c>
-      <c r="F126" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G126" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H126" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="5">
         <v>45961</v>
       </c>
@@ -4678,27 +5185,31 @@
         <v>22.125</v>
       </c>
       <c r="D127">
+        <f t="shared" si="12"/>
+        <v>218.25</v>
+      </c>
+      <c r="E127" s="3">
+        <f t="shared" si="6"/>
+        <v>0.56069364161849711</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H127" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I127">
         <f t="shared" si="10"/>
-        <v>218.25</v>
-      </c>
-      <c r="E127" s="3">
-        <f t="shared" si="5"/>
-        <v>0.56069364161849711</v>
-      </c>
-      <c r="F127" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G127" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H127" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="5">
         <v>45961</v>
       </c>
@@ -4709,27 +5220,31 @@
         <v>22.125</v>
       </c>
       <c r="D128">
+        <f t="shared" si="12"/>
+        <v>240.375</v>
+      </c>
+      <c r="E128" s="3">
+        <f t="shared" si="6"/>
+        <v>0.61753371868978801</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H128" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I128">
         <f t="shared" si="10"/>
-        <v>240.375</v>
-      </c>
-      <c r="E128" s="3">
-        <f t="shared" si="5"/>
-        <v>0.61753371868978801</v>
-      </c>
-      <c r="F128" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G128" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H128" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="5">
         <v>45961</v>
       </c>
@@ -4740,27 +5255,31 @@
         <v>22.125</v>
       </c>
       <c r="D129">
+        <f t="shared" si="12"/>
+        <v>262.5</v>
+      </c>
+      <c r="E129" s="3">
+        <f t="shared" si="6"/>
+        <v>0.67437379576107903</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H129" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I129">
         <f t="shared" si="10"/>
-        <v>262.5</v>
-      </c>
-      <c r="E129" s="3">
-        <f t="shared" si="5"/>
-        <v>0.67437379576107903</v>
-      </c>
-      <c r="F129" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G129" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H129" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="5">
         <v>45961</v>
       </c>
@@ -4771,27 +5290,31 @@
         <v>22.125</v>
       </c>
       <c r="D130">
+        <f t="shared" si="12"/>
+        <v>284.625</v>
+      </c>
+      <c r="E130" s="3">
+        <f t="shared" si="6"/>
+        <v>0.73121387283236994</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="13"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="8"/>
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H130" t="str">
+        <f t="shared" si="9"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I130">
         <f t="shared" si="10"/>
-        <v>284.625</v>
-      </c>
-      <c r="E130" s="3">
-        <f t="shared" si="5"/>
-        <v>0.73121387283236994</v>
-      </c>
-      <c r="F130" t="str">
-        <f t="shared" si="11"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G130" t="str">
-        <f t="shared" si="7"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H130" t="str">
-        <f t="shared" si="8"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="5">
         <v>45961</v>
       </c>
@@ -4802,30 +5325,34 @@
         <v>22.125</v>
       </c>
       <c r="D131">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>306.75</v>
       </c>
       <c r="E131" s="3">
-        <f t="shared" ref="E131:E193" si="12">D131/$K$5</f>
+        <f t="shared" ref="E131:E193" si="14">D131/$R$5</f>
         <v>0.78805394990366084</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G193" si="13">IF(OR(
+        <f t="shared" ref="G131:G193" si="15">IF(OR(
     TIMEVALUE(MID(B131,1,5))&gt;=TIME(22,0,0),
     TIMEVALUE(MID(B131,1,5))&lt;TIME(6,0,0)
 ),"Nachtruhe","keine Nachtruhe")</f>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H193" si="14">IF(AND(F131="wird nicht betankt",G131="keine Nachtruhe"),"Elektrolyseur darf","Elektrolyseur darf nicht")</f>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="H131:H193" si="16">IF(AND(F131="wird nicht betankt",G131="keine Nachtruhe"),"Elektrolyseur darf","Elektrolyseur darf nicht")</f>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I193" si="17">ROUND(IF(AND(H131="Elektrolyseur darf", C131=22.125),C131*14.83,0),2)</f>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="5">
         <v>45961</v>
       </c>
@@ -4836,27 +5363,31 @@
         <v>22.125</v>
       </c>
       <c r="D132">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>328.875</v>
       </c>
       <c r="E132" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.84489402697495186</v>
       </c>
       <c r="F132" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G132" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="5">
         <v>45961</v>
       </c>
@@ -4867,27 +5398,31 @@
         <v>22.125</v>
       </c>
       <c r="D133">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>351</v>
       </c>
       <c r="E133" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.90173410404624277</v>
       </c>
       <c r="F133" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G133" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="5">
         <v>45961</v>
       </c>
@@ -4898,27 +5433,31 @@
         <v>22.125</v>
       </c>
       <c r="D134">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>373.125</v>
       </c>
       <c r="E134" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.95857418111753367</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G134" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="5">
         <v>45961</v>
       </c>
@@ -4929,27 +5468,31 @@
         <v>22.125</v>
       </c>
       <c r="D135">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E135" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G135" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="5">
         <v>45961</v>
       </c>
@@ -4960,27 +5503,31 @@
         <v>0</v>
       </c>
       <c r="D136">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E136" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G136" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="5">
         <v>45961</v>
       </c>
@@ -4991,27 +5538,31 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E137" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G137" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="5">
         <v>45961</v>
       </c>
@@ -5022,27 +5573,31 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E138" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G138" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H138" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="5">
         <v>45961</v>
       </c>
@@ -5053,27 +5608,31 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E139" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G139" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="5">
         <v>45961</v>
       </c>
@@ -5084,27 +5643,31 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E140" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G140" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="5">
         <v>45961</v>
       </c>
@@ -5115,27 +5678,31 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E141" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G141" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="5">
         <v>45961</v>
       </c>
@@ -5146,27 +5713,31 @@
         <v>0</v>
       </c>
       <c r="D142">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E142" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G142" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="5">
         <v>45961</v>
       </c>
@@ -5177,27 +5748,31 @@
         <v>0</v>
       </c>
       <c r="D143">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E143" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G143" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="5">
         <v>45961</v>
       </c>
@@ -5208,27 +5783,31 @@
         <v>0</v>
       </c>
       <c r="D144">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E144" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G144" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="5">
         <v>45961</v>
       </c>
@@ -5239,27 +5818,31 @@
         <v>0</v>
       </c>
       <c r="D145">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E145" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G145" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="5">
         <v>45961</v>
       </c>
@@ -5270,27 +5853,31 @@
         <v>0</v>
       </c>
       <c r="D146">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E146" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G146" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="5">
         <v>45961</v>
       </c>
@@ -5301,27 +5888,31 @@
         <v>0</v>
       </c>
       <c r="D147">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E147" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G147" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="5">
         <v>45961</v>
       </c>
@@ -5332,27 +5923,31 @@
         <v>-21.75</v>
       </c>
       <c r="D148">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>367.5</v>
       </c>
       <c r="E148" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.94412331406551064</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird betankt</v>
       </c>
       <c r="G148" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="5">
         <v>45961</v>
       </c>
@@ -5363,27 +5958,31 @@
         <v>-21.75</v>
       </c>
       <c r="D149">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>345.75</v>
       </c>
       <c r="E149" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.88824662813102118</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird betankt</v>
       </c>
       <c r="G149" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="5">
         <v>45961</v>
       </c>
@@ -5394,27 +5993,31 @@
         <v>-21.75</v>
       </c>
       <c r="D150">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>324</v>
       </c>
       <c r="E150" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.83236994219653182</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird betankt</v>
       </c>
       <c r="G150" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="5">
         <v>45961</v>
       </c>
@@ -5425,27 +6028,31 @@
         <v>-21.75</v>
       </c>
       <c r="D151">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>302.25</v>
       </c>
       <c r="E151" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.77649325626204235</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird betankt</v>
       </c>
       <c r="G151" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="5">
         <v>45961</v>
       </c>
@@ -5456,27 +6063,31 @@
         <v>22.125</v>
       </c>
       <c r="D152">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>324.375</v>
       </c>
       <c r="E152" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="5">
         <v>45961</v>
       </c>
@@ -5487,27 +6098,31 @@
         <v>22.125</v>
       </c>
       <c r="D153">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>346.5</v>
       </c>
       <c r="E153" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.89017341040462428</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G153" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="5">
         <v>45961</v>
       </c>
@@ -5518,27 +6133,31 @@
         <v>22.125</v>
       </c>
       <c r="D154">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>368.625</v>
       </c>
       <c r="E154" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.94701348747591518</v>
       </c>
       <c r="F154" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G154" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="5">
         <v>45961</v>
       </c>
@@ -5549,27 +6168,31 @@
         <v>22.125</v>
       </c>
       <c r="D155">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E155" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F155" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G155" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="5">
         <v>45961</v>
       </c>
@@ -5580,27 +6203,31 @@
         <v>0</v>
       </c>
       <c r="D156">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E156" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F156" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G156" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="5">
         <v>45961</v>
       </c>
@@ -5611,27 +6238,31 @@
         <v>0</v>
       </c>
       <c r="D157">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E157" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F157" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G157" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="5">
         <v>45961</v>
       </c>
@@ -5642,27 +6273,31 @@
         <v>0</v>
       </c>
       <c r="D158">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E158" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G158" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="5">
         <v>45961</v>
       </c>
@@ -5673,27 +6308,31 @@
         <v>0</v>
       </c>
       <c r="D159">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E159" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F159" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G159" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="5">
         <v>45961</v>
       </c>
@@ -5704,27 +6343,31 @@
         <v>0</v>
       </c>
       <c r="D160">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E160" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F160" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G160" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="5">
         <v>45961</v>
       </c>
@@ -5735,27 +6378,31 @@
         <v>0</v>
       </c>
       <c r="D161">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>389.25</v>
       </c>
       <c r="E161" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F161" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G161" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="5">
         <v>45961</v>
       </c>
@@ -5766,15 +6413,15 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <f t="shared" ref="D162:D193" si="15">IF((D161+C162)&gt; 389.25, 389.25,(D161+C162))</f>
+        <f t="shared" ref="D162:D193" si="18">IF((D161+C162)&gt; 389.25, 389.25,(D161+C162))</f>
         <v>389.25</v>
       </c>
       <c r="E162" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F162" t="str">
-        <f t="shared" ref="F162:F193" si="16">IF(OR(
+        <f t="shared" ref="F162:F193" si="19">IF(OR(
     AND(TIMEVALUE(MID(B162,1,5))&gt;=TIME(4,30,0),TIMEVALUE(MID(B162,1,5))&lt;TIME(6,30,0)),
     AND(TIMEVALUE(MID(B162,1,5))&gt;=TIME(12,30,0),TIMEVALUE(MID(B162,1,5))&lt;TIME(13,30,0)),
     AND(TIMEVALUE(MID(B162,1,5))&gt;=TIME(19,0,0),TIMEVALUE(MID(B162,1,5))&lt;TIME(21,0,0))
@@ -5782,15 +6429,19 @@
         <v>wird nicht betankt</v>
       </c>
       <c r="G162" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="16"/>
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="5">
         <v>45961</v>
       </c>
@@ -5801,27 +6452,31 @@
         <v>0</v>
       </c>
       <c r="D163">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E163" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G163" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E163" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F163" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H163" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G163" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H163" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="5">
         <v>45961</v>
       </c>
@@ -5832,27 +6487,31 @@
         <v>0</v>
       </c>
       <c r="D164">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E164" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G164" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E164" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F164" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H164" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G164" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H164" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="5">
         <v>45961</v>
       </c>
@@ -5863,27 +6522,31 @@
         <v>0</v>
       </c>
       <c r="D165">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E165" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G165" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E165" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F165" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H165" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G165" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H165" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="5">
         <v>45961</v>
       </c>
@@ -5894,27 +6557,31 @@
         <v>0</v>
       </c>
       <c r="D166">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E166" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G166" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E166" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F166" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H166" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G166" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H166" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="5">
         <v>45961</v>
       </c>
@@ -5925,27 +6592,31 @@
         <v>0</v>
       </c>
       <c r="D167">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E167" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G167" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E167" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F167" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H167" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G167" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H167" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="5">
         <v>45961</v>
       </c>
@@ -5956,27 +6627,31 @@
         <v>0</v>
       </c>
       <c r="D168">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E168" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G168" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E168" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F168" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H168" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G168" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H168" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="5">
         <v>45961</v>
       </c>
@@ -5987,27 +6662,31 @@
         <v>0</v>
       </c>
       <c r="D169">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E169" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G169" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E169" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F169" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H169" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G169" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H169" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="5">
         <v>45961</v>
       </c>
@@ -6018,27 +6697,31 @@
         <v>0</v>
       </c>
       <c r="D170">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E170" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G170" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E170" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F170" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H170" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G170" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H170" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="5">
         <v>45961</v>
       </c>
@@ -6049,27 +6732,31 @@
         <v>0</v>
       </c>
       <c r="D171">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E171" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G171" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E171" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F171" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H171" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G171" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H171" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="5">
         <v>45961</v>
       </c>
@@ -6080,27 +6767,31 @@
         <v>0</v>
       </c>
       <c r="D172">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E172" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G172" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E172" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F172" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H172" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G172" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H172" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="5">
         <v>45961</v>
       </c>
@@ -6111,27 +6802,31 @@
         <v>0</v>
       </c>
       <c r="D173">
+        <f t="shared" si="18"/>
+        <v>389.25</v>
+      </c>
+      <c r="E173" s="3">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G173" t="str">
         <f t="shared" si="15"/>
-        <v>389.25</v>
-      </c>
-      <c r="E173" s="3">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F173" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H173" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G173" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H173" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="5">
         <v>45961</v>
       </c>
@@ -6142,27 +6837,31 @@
         <v>-21.75</v>
       </c>
       <c r="D174">
+        <f t="shared" si="18"/>
+        <v>367.5</v>
+      </c>
+      <c r="E174" s="3">
+        <f t="shared" si="14"/>
+        <v>0.94412331406551064</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="19"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G174" t="str">
         <f t="shared" si="15"/>
-        <v>367.5</v>
-      </c>
-      <c r="E174" s="3">
-        <f t="shared" si="12"/>
-        <v>0.94412331406551064</v>
-      </c>
-      <c r="F174" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H174" t="str">
         <f t="shared" si="16"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G174" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H174" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="5">
         <v>45961</v>
       </c>
@@ -6173,27 +6872,31 @@
         <v>-21.75</v>
       </c>
       <c r="D175">
+        <f t="shared" si="18"/>
+        <v>345.75</v>
+      </c>
+      <c r="E175" s="3">
+        <f t="shared" si="14"/>
+        <v>0.88824662813102118</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="19"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G175" t="str">
         <f t="shared" si="15"/>
-        <v>345.75</v>
-      </c>
-      <c r="E175" s="3">
-        <f t="shared" si="12"/>
-        <v>0.88824662813102118</v>
-      </c>
-      <c r="F175" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H175" t="str">
         <f t="shared" si="16"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G175" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H175" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="5">
         <v>45961</v>
       </c>
@@ -6204,27 +6907,31 @@
         <v>-21.75</v>
       </c>
       <c r="D176">
+        <f t="shared" si="18"/>
+        <v>324</v>
+      </c>
+      <c r="E176" s="3">
+        <f t="shared" si="14"/>
+        <v>0.83236994219653182</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="19"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G176" t="str">
         <f t="shared" si="15"/>
-        <v>324</v>
-      </c>
-      <c r="E176" s="3">
-        <f t="shared" si="12"/>
-        <v>0.83236994219653182</v>
-      </c>
-      <c r="F176" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H176" t="str">
         <f t="shared" si="16"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G176" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H176" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="5">
         <v>45961</v>
       </c>
@@ -6235,27 +6942,31 @@
         <v>-21.75</v>
       </c>
       <c r="D177">
+        <f t="shared" si="18"/>
+        <v>302.25</v>
+      </c>
+      <c r="E177" s="3">
+        <f t="shared" si="14"/>
+        <v>0.77649325626204235</v>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="19"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G177" t="str">
         <f t="shared" si="15"/>
-        <v>302.25</v>
-      </c>
-      <c r="E177" s="3">
-        <f t="shared" si="12"/>
-        <v>0.77649325626204235</v>
-      </c>
-      <c r="F177" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H177" t="str">
         <f t="shared" si="16"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G177" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H177" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="5">
         <v>45961</v>
       </c>
@@ -6266,27 +6977,31 @@
         <v>-21.75</v>
       </c>
       <c r="D178">
+        <f t="shared" si="18"/>
+        <v>280.5</v>
+      </c>
+      <c r="E178" s="3">
+        <f t="shared" si="14"/>
+        <v>0.720616570327553</v>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="19"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G178" t="str">
         <f t="shared" si="15"/>
-        <v>280.5</v>
-      </c>
-      <c r="E178" s="3">
-        <f t="shared" si="12"/>
-        <v>0.720616570327553</v>
-      </c>
-      <c r="F178" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H178" t="str">
         <f t="shared" si="16"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G178" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H178" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="5">
         <v>45961</v>
       </c>
@@ -6297,27 +7012,31 @@
         <v>-21.75</v>
       </c>
       <c r="D179">
+        <f t="shared" si="18"/>
+        <v>258.75</v>
+      </c>
+      <c r="E179" s="3">
+        <f t="shared" si="14"/>
+        <v>0.66473988439306353</v>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="19"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G179" t="str">
         <f t="shared" si="15"/>
-        <v>258.75</v>
-      </c>
-      <c r="E179" s="3">
-        <f t="shared" si="12"/>
-        <v>0.66473988439306353</v>
-      </c>
-      <c r="F179" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H179" t="str">
         <f t="shared" si="16"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G179" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H179" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="5">
         <v>45961</v>
       </c>
@@ -6328,27 +7047,31 @@
         <v>-21.75</v>
       </c>
       <c r="D180">
+        <f t="shared" si="18"/>
+        <v>237</v>
+      </c>
+      <c r="E180" s="3">
+        <f t="shared" si="14"/>
+        <v>0.60886319845857417</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="19"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G180" t="str">
         <f t="shared" si="15"/>
-        <v>237</v>
-      </c>
-      <c r="E180" s="3">
-        <f t="shared" si="12"/>
-        <v>0.60886319845857417</v>
-      </c>
-      <c r="F180" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H180" t="str">
         <f t="shared" si="16"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G180" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H180" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="5">
         <v>45961</v>
       </c>
@@ -6359,27 +7082,31 @@
         <v>-21.75</v>
       </c>
       <c r="D181">
+        <f t="shared" si="18"/>
+        <v>215.25</v>
+      </c>
+      <c r="E181" s="3">
+        <f t="shared" si="14"/>
+        <v>0.55298651252408482</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="19"/>
+        <v>wird betankt</v>
+      </c>
+      <c r="G181" t="str">
         <f t="shared" si="15"/>
-        <v>215.25</v>
-      </c>
-      <c r="E181" s="3">
-        <f t="shared" si="12"/>
-        <v>0.55298651252408482</v>
-      </c>
-      <c r="F181" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H181" t="str">
         <f t="shared" si="16"/>
-        <v>wird betankt</v>
-      </c>
-      <c r="G181" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H181" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="5">
         <v>45961</v>
       </c>
@@ -6390,27 +7117,31 @@
         <v>22.125</v>
       </c>
       <c r="D182">
+        <f t="shared" si="18"/>
+        <v>237.375</v>
+      </c>
+      <c r="E182" s="3">
+        <f t="shared" si="14"/>
+        <v>0.60982658959537572</v>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G182" t="str">
         <f t="shared" si="15"/>
-        <v>237.375</v>
-      </c>
-      <c r="E182" s="3">
-        <f t="shared" si="12"/>
-        <v>0.60982658959537572</v>
-      </c>
-      <c r="F182" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H182" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G182" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H182" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="5">
         <v>45961</v>
       </c>
@@ -6421,27 +7152,31 @@
         <v>22.125</v>
       </c>
       <c r="D183">
+        <f t="shared" si="18"/>
+        <v>259.5</v>
+      </c>
+      <c r="E183" s="3">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F183" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G183" t="str">
         <f t="shared" si="15"/>
-        <v>259.5</v>
-      </c>
-      <c r="E183" s="3">
-        <f t="shared" si="12"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F183" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H183" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G183" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H183" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="5">
         <v>45961</v>
       </c>
@@ -6452,27 +7187,31 @@
         <v>22.125</v>
       </c>
       <c r="D184">
+        <f t="shared" si="18"/>
+        <v>281.625</v>
+      </c>
+      <c r="E184" s="3">
+        <f t="shared" si="14"/>
+        <v>0.72350674373795765</v>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G184" t="str">
         <f t="shared" si="15"/>
-        <v>281.625</v>
-      </c>
-      <c r="E184" s="3">
-        <f t="shared" si="12"/>
-        <v>0.72350674373795765</v>
-      </c>
-      <c r="F184" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H184" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G184" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H184" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="5">
         <v>45961</v>
       </c>
@@ -6483,27 +7222,31 @@
         <v>22.125</v>
       </c>
       <c r="D185">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+      <c r="E185" s="3">
+        <f t="shared" si="14"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G185" t="str">
         <f t="shared" si="15"/>
-        <v>303.75</v>
-      </c>
-      <c r="E185" s="3">
-        <f t="shared" si="12"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F185" t="str">
+        <v>keine Nachtruhe</v>
+      </c>
+      <c r="H185" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G185" t="str">
-        <f t="shared" si="13"/>
-        <v>keine Nachtruhe</v>
-      </c>
-      <c r="H185" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="17"/>
+        <v>328.11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="5">
         <v>45961</v>
       </c>
@@ -6514,27 +7257,31 @@
         <v>0</v>
       </c>
       <c r="D186">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+      <c r="E186" s="3">
+        <f t="shared" si="14"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G186" t="str">
         <f t="shared" si="15"/>
-        <v>303.75</v>
-      </c>
-      <c r="E186" s="3">
-        <f t="shared" si="12"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F186" t="str">
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H186" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G186" t="str">
-        <f t="shared" si="13"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H186" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="5">
         <v>45961</v>
       </c>
@@ -6545,27 +7292,31 @@
         <v>0</v>
       </c>
       <c r="D187">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+      <c r="E187" s="3">
+        <f t="shared" si="14"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G187" t="str">
         <f t="shared" si="15"/>
-        <v>303.75</v>
-      </c>
-      <c r="E187" s="3">
-        <f t="shared" si="12"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F187" t="str">
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H187" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G187" t="str">
-        <f t="shared" si="13"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H187" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="5">
         <v>45961</v>
       </c>
@@ -6576,27 +7327,31 @@
         <v>0</v>
       </c>
       <c r="D188">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+      <c r="E188" s="3">
+        <f t="shared" si="14"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G188" t="str">
         <f t="shared" si="15"/>
-        <v>303.75</v>
-      </c>
-      <c r="E188" s="3">
-        <f t="shared" si="12"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F188" t="str">
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H188" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G188" t="str">
-        <f t="shared" si="13"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H188" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="5">
         <v>45961</v>
       </c>
@@ -6607,27 +7362,31 @@
         <v>0</v>
       </c>
       <c r="D189">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+      <c r="E189" s="3">
+        <f t="shared" si="14"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F189" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G189" t="str">
         <f t="shared" si="15"/>
-        <v>303.75</v>
-      </c>
-      <c r="E189" s="3">
-        <f t="shared" si="12"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F189" t="str">
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H189" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G189" t="str">
-        <f t="shared" si="13"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H189" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="5">
         <v>45961</v>
       </c>
@@ -6638,27 +7397,31 @@
         <v>0</v>
       </c>
       <c r="D190">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+      <c r="E190" s="3">
+        <f t="shared" si="14"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G190" t="str">
         <f t="shared" si="15"/>
-        <v>303.75</v>
-      </c>
-      <c r="E190" s="3">
-        <f t="shared" si="12"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F190" t="str">
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H190" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G190" t="str">
-        <f t="shared" si="13"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H190" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="5">
         <v>45961</v>
       </c>
@@ -6669,27 +7432,31 @@
         <v>0</v>
       </c>
       <c r="D191">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+      <c r="E191" s="3">
+        <f t="shared" si="14"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G191" t="str">
         <f t="shared" si="15"/>
-        <v>303.75</v>
-      </c>
-      <c r="E191" s="3">
-        <f t="shared" si="12"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F191" t="str">
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H191" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G191" t="str">
-        <f t="shared" si="13"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H191" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="5">
         <v>45961</v>
       </c>
@@ -6700,27 +7467,31 @@
         <v>0</v>
       </c>
       <c r="D192">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+      <c r="E192" s="3">
+        <f t="shared" si="14"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G192" t="str">
         <f t="shared" si="15"/>
-        <v>303.75</v>
-      </c>
-      <c r="E192" s="3">
-        <f t="shared" si="12"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F192" t="str">
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H192" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G192" t="str">
-        <f t="shared" si="13"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H192" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="5">
         <v>45961</v>
       </c>
@@ -6731,24 +7502,28 @@
         <v>0</v>
       </c>
       <c r="D193">
+        <f t="shared" si="18"/>
+        <v>303.75</v>
+      </c>
+      <c r="E193" s="3">
+        <f t="shared" si="14"/>
+        <v>0.78034682080924855</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" si="19"/>
+        <v>wird nicht betankt</v>
+      </c>
+      <c r="G193" t="str">
         <f t="shared" si="15"/>
-        <v>303.75</v>
-      </c>
-      <c r="E193" s="3">
-        <f t="shared" si="12"/>
-        <v>0.78034682080924855</v>
-      </c>
-      <c r="F193" t="str">
+        <v>Nachtruhe</v>
+      </c>
+      <c r="H193" t="str">
         <f t="shared" si="16"/>
-        <v>wird nicht betankt</v>
-      </c>
-      <c r="G193" t="str">
-        <f t="shared" si="13"/>
-        <v>Nachtruhe</v>
-      </c>
-      <c r="H193" t="str">
-        <f t="shared" si="14"/>
-        <v>Elektrolyseur darf nicht</v>
+        <v>Elektrolyseur darf nicht</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Lastmanagement.xlsx
+++ b/Lastmanagement.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e615c91372c03226/Desktop/Master Hda/3. Semester/Projektmanagement/0400 Logistik/Lastmanagement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenau\OneDrive\Projektmanagement\0400 Logistik\Lastmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{67667DBB-C778-4961-B96F-7D20F672DF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B708B73D-2C40-422F-87D5-6072D23019CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3936DBA-EB99-40D2-BF9A-87A99C437227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <f>N2*$U$13+IF(O2=5346.94,$W$21,0)</f>
+        <f t="shared" ref="Q2:Q65" si="4">N2*$U$13+IF(O2=5348.94,$W$21,0)</f>
         <v>0</v>
       </c>
       <c r="R2">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F66" si="4">IF(OR(
+        <f t="shared" ref="F3:F66" si="5">IF(OR(
     AND(TIMEVALUE(MID(B3,1,5))&gt;=TIME(4,30,0),TIMEVALUE(MID(B3,1,5))&lt;TIME(6,30,0)),
     AND(TIMEVALUE(MID(B3,1,5))&gt;=TIME(12,30,0),TIMEVALUE(MID(B3,1,5))&lt;TIME(13,30,0)),
     AND(TIMEVALUE(MID(B3,1,5))&gt;=TIME(19,0,0),TIMEVALUE(MID(B3,1,5))&lt;TIME(21,0,0))
@@ -994,18 +994,18 @@
         <v>wird nicht betankt</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G66" si="5">IF(OR(
+        <f t="shared" ref="G3:G66" si="6">IF(OR(
     TIMEVALUE(MID(B3,1,5))&gt;=TIME(22,0,0),
     TIMEVALUE(MID(B3,1,5))&lt;TIME(6,0,0)
 ),"Nachtruhe","keine Nachtruhe")</f>
         <v>Nachtruhe</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H66" si="6">IF(AND(F3="wird nicht betankt",G3="keine Nachtruhe"),"Elektrolyseur darf","Elektrolyseur darf nicht")</f>
+        <f t="shared" ref="H3:H66" si="7">IF(AND(F3="wird nicht betankt",G3="keine Nachtruhe"),"Elektrolyseur darf","Elektrolyseur darf nicht")</f>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="7">ROUND(IF(AND(H3="Elektrolyseur darf", C3=22.125),C3*21.1857,0),2)</f>
+        <f t="shared" ref="I3:I66" si="8">ROUND(IF(AND(H3="Elektrolyseur darf", C3=22.125),C3*21.1857,0),2)</f>
         <v>0</v>
       </c>
       <c r="J3">
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="8">IF(J3&gt;0,$V$4*0.25,0)</f>
+        <f t="shared" ref="K3:K66" si="9">IF(J3&gt;0,$V$4*0.25,0)</f>
         <v>0</v>
       </c>
       <c r="L3">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="9">SUM(J3:M3)</f>
+        <f t="shared" ref="N3:N66" si="10">SUM(J3:M3)</f>
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="10">ROUND(N3/0.25,2)</f>
+        <f t="shared" ref="O3:O66" si="11">ROUND(N3/0.25,2)</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="11">I3*$U$8</f>
+        <f t="shared" ref="P3:P66" si="12">I3*$U$8</f>
         <v>0</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q65" si="12">N3*$U$13+IF(O3=5346.94,$W$21,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R3">
@@ -1080,19 +1080,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J4">
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L4">
@@ -1112,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R4">
@@ -1170,19 +1170,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J5">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L5">
@@ -1202,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R5">
@@ -1251,19 +1251,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J6">
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L6">
@@ -1283,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R6">
@@ -1329,19 +1329,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J7">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L7">
@@ -1361,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R7">
@@ -1410,19 +1410,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J8">
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L8">
@@ -1442,19 +1442,19 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R8">
@@ -1488,19 +1488,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J9">
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L9">
@@ -1520,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R9">
@@ -1566,19 +1566,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J10">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L10">
@@ -1598,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R10">
@@ -1650,19 +1650,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J11">
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L11">
@@ -1682,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R11">
@@ -1709,11 +1709,12 @@
         <v>51.72</v>
       </c>
       <c r="V11">
-        <v>5346.04</v>
+        <f>SUM(U4:X4)</f>
+        <v>5448</v>
       </c>
       <c r="W11" s="7">
         <f>U11*V11</f>
-        <v>276497.1888</v>
+        <v>281770.56</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -1735,19 +1736,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J12">
@@ -1755,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L12">
@@ -1767,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R12">
@@ -1813,19 +1814,19 @@
         <v>1</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J13">
@@ -1833,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L13">
@@ -1845,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R13">
@@ -1891,19 +1892,19 @@
         <v>1</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J14">
@@ -1911,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L14">
@@ -1923,19 +1924,19 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R14">
@@ -1948,7 +1949,7 @@
       </c>
       <c r="W14">
         <f>COUNTIF(O2:O98,O28)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -1970,19 +1971,19 @@
         <v>1</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J15">
@@ -1990,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L15">
@@ -2002,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R15">
@@ -2051,19 +2052,19 @@
         <v>1</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J16">
@@ -2071,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L16">
@@ -2083,19 +2084,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R16">
@@ -2132,19 +2133,19 @@
         <v>1</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J17">
@@ -2152,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L17">
@@ -2164,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O17">
@@ -2172,11 +2173,11 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R17">
@@ -2210,19 +2211,19 @@
         <v>1</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J18">
@@ -2230,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L18">
@@ -2242,19 +2243,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R18">
@@ -2288,19 +2289,19 @@
         <v>1</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J19">
@@ -2308,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L19">
@@ -2320,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="12"/>
+        <f>N19*$U$13+IF(O19=5348.94,$W$21,0)</f>
         <v>0</v>
       </c>
       <c r="R19">
@@ -2345,7 +2346,7 @@
       </c>
       <c r="W19">
         <f>W15*W14+W16</f>
-        <v>6224</v>
+        <v>5860</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -2367,19 +2368,19 @@
         <v>0.96674329501915701</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J20">
@@ -2387,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L20">
@@ -2399,19 +2400,19 @@
         <v>25</v>
       </c>
       <c r="N20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R20">
@@ -2445,19 +2446,19 @@
         <v>0.93348659003831425</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J21">
@@ -2465,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L21">
@@ -2477,19 +2478,19 @@
         <v>25</v>
       </c>
       <c r="N21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R21">
@@ -2502,7 +2503,7 @@
       </c>
       <c r="W21" s="8">
         <f>W11/W19</f>
-        <v>44.424355526992287</v>
+        <v>48.083713310580201</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -2524,19 +2525,19 @@
         <v>0.90022988505747126</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J22">
@@ -2544,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L22">
@@ -2556,19 +2557,19 @@
         <v>25</v>
       </c>
       <c r="N22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R22">
@@ -2599,19 +2600,19 @@
         <v>0.86697318007662838</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J23">
@@ -2619,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L23">
@@ -2631,23 +2632,23 @@
         <v>25</v>
       </c>
       <c r="N23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O23">
-        <f t="shared" si="10"/>
+        <f>ROUND(N23/0.25,2)</f>
         <v>100</v>
       </c>
       <c r="P23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R23">
-        <f t="shared" si="13"/>
+        <f>N23*$U$16</f>
         <v>1.5</v>
       </c>
       <c r="S23">
@@ -2674,19 +2675,19 @@
         <v>0.83371647509578539</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J24">
@@ -2694,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L24">
@@ -2706,19 +2707,19 @@
         <v>25</v>
       </c>
       <c r="N24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R24">
@@ -2749,19 +2750,19 @@
         <v>0.8004597701149424</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Nachtruhe</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J25">
@@ -2769,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L25">
@@ -2781,19 +2782,19 @@
         <v>25</v>
       </c>
       <c r="N25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R25">
@@ -2824,19 +2825,19 @@
         <v>0.76720306513409964</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J26">
@@ -2844,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L26">
@@ -2856,19 +2857,19 @@
         <v>25</v>
       </c>
       <c r="N26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R26">
@@ -2899,19 +2900,19 @@
         <v>0.73394636015325665</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J27">
@@ -2919,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L27">
@@ -2931,19 +2932,19 @@
         <v>25</v>
       </c>
       <c r="N27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R27">
@@ -2974,27 +2975,27 @@
         <v>0.76781609195402301</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f>IF(C28=22.125,$U$4*0.25,0)</f>
         <v>1250</v>
       </c>
       <c r="K28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L28">
@@ -3006,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <f t="shared" si="9"/>
+        <f>SUM(J28:M28)</f>
         <v>1337</v>
       </c>
       <c r="O28">
@@ -3018,7 +3019,7 @@
         <v>2.0624120000000001</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="12"/>
+        <f>N28*$U$13+IF(O28=5348.94,$W$21,0)</f>
         <v>86.905000000000001</v>
       </c>
       <c r="R28">
@@ -3049,19 +3050,19 @@
         <v>0.80168582375478936</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f>ROUND(IF(AND(H29="Elektrolyseur darf", C29=22.125),C29*21.1857,0),2)</f>
         <v>468.73</v>
       </c>
       <c r="J29">
@@ -3069,7 +3070,7 @@
         <v>1250</v>
       </c>
       <c r="K29">
-        <f t="shared" si="8"/>
+        <f>IF(J29&gt;0,$V$4*0.25,0)</f>
         <v>87</v>
       </c>
       <c r="L29">
@@ -3081,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R29">
@@ -3124,11 +3125,11 @@
         <v>0.83555555555555561</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H30" t="str">
@@ -3136,7 +3137,7 @@
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J30">
@@ -3144,7 +3145,7 @@
         <v>1250</v>
       </c>
       <c r="K30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L30">
@@ -3156,19 +3157,19 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R30">
@@ -3199,19 +3200,19 @@
         <v>0.86942528735632174</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J31">
@@ -3219,7 +3220,7 @@
         <v>1250</v>
       </c>
       <c r="K31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L31">
@@ -3231,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R31">
@@ -3274,19 +3275,19 @@
         <v>0.9032950191570881</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J32">
@@ -3294,7 +3295,7 @@
         <v>1250</v>
       </c>
       <c r="K32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L32">
@@ -3306,19 +3307,19 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R32">
@@ -3349,19 +3350,19 @@
         <v>0.93716475095785445</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J33">
@@ -3369,7 +3370,7 @@
         <v>1250</v>
       </c>
       <c r="K33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L33">
@@ -3381,19 +3382,19 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R33">
@@ -3424,19 +3425,19 @@
         <v>0.9710344827586207</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J34">
@@ -3444,7 +3445,7 @@
         <v>1250</v>
       </c>
       <c r="K34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L34">
@@ -3456,19 +3457,19 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R34">
@@ -3499,19 +3500,19 @@
         <v>1</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J35">
@@ -3519,7 +3520,7 @@
         <v>1250</v>
       </c>
       <c r="K35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L35">
@@ -3531,19 +3532,19 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R35">
@@ -3574,19 +3575,19 @@
         <v>1</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J36">
@@ -3594,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L36">
@@ -3606,19 +3607,19 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R36">
@@ -3649,19 +3650,19 @@
         <v>1</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J37">
@@ -3669,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L37">
@@ -3681,19 +3682,19 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R37">
@@ -3724,19 +3725,19 @@
         <v>1</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J38">
@@ -3744,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L38">
@@ -3756,19 +3757,19 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R38">
@@ -3799,19 +3800,19 @@
         <v>1</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J39">
@@ -3819,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L39">
@@ -3831,19 +3832,19 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R39">
@@ -3874,19 +3875,19 @@
         <v>1</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J40">
@@ -3894,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L40">
@@ -3906,19 +3907,19 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R40">
@@ -3949,19 +3950,19 @@
         <v>1</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J41">
@@ -3969,7 +3970,7 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L41">
@@ -3981,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R41">
@@ -4024,19 +4025,19 @@
         <v>1</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J42">
@@ -4044,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L42">
@@ -4056,19 +4057,19 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R42">
@@ -4099,19 +4100,19 @@
         <v>1</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J43">
@@ -4119,7 +4120,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L43">
@@ -4131,19 +4132,19 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R43">
@@ -4174,19 +4175,19 @@
         <v>1</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H44" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -4194,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L44">
@@ -4206,19 +4207,19 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R44">
@@ -4249,19 +4250,19 @@
         <v>1</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H45" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -4269,7 +4270,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L45">
@@ -4281,19 +4282,19 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R45">
@@ -4324,19 +4325,19 @@
         <v>1</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H46" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J46">
@@ -4344,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L46">
@@ -4356,19 +4357,19 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R46">
@@ -4399,19 +4400,19 @@
         <v>1</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J47">
@@ -4419,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L47">
@@ -4431,19 +4432,19 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R47">
@@ -4474,19 +4475,19 @@
         <v>1</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J48">
@@ -4494,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L48">
@@ -4506,19 +4507,19 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R48">
@@ -4549,19 +4550,19 @@
         <v>1</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J49">
@@ -4569,7 +4570,7 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L49">
@@ -4581,19 +4582,19 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R49">
@@ -4624,19 +4625,19 @@
         <v>1</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J50">
@@ -4644,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L50">
@@ -4656,19 +4657,19 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R50">
@@ -4699,19 +4700,19 @@
         <v>1</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J51">
@@ -4719,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L51">
@@ -4731,19 +4732,19 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R51">
@@ -4774,19 +4775,19 @@
         <v>0.96674329501915701</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J52">
@@ -4794,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L52">
@@ -4806,19 +4807,19 @@
         <v>25</v>
       </c>
       <c r="N52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R52">
@@ -4849,19 +4850,19 @@
         <v>0.93348659003831425</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J53">
@@ -4869,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L53">
@@ -4881,19 +4882,19 @@
         <v>25</v>
       </c>
       <c r="N53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R53">
@@ -4924,19 +4925,19 @@
         <v>0.90022988505747126</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J54">
@@ -4944,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L54">
@@ -4956,19 +4957,19 @@
         <v>25</v>
       </c>
       <c r="N54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R54">
@@ -4999,19 +5000,19 @@
         <v>0.86697318007662838</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird betankt</v>
       </c>
       <c r="G55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf nicht</v>
       </c>
       <c r="I55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J55">
@@ -5019,7 +5020,7 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L55">
@@ -5031,19 +5032,19 @@
         <v>25</v>
       </c>
       <c r="N55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="P55">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>1.625</v>
       </c>
       <c r="R55">
@@ -5063,39 +5064,39 @@
         <v>83</v>
       </c>
       <c r="C56">
-        <v>-21.75</v>
+        <v>22.125</v>
       </c>
       <c r="D56">
         <f t="shared" si="15"/>
-        <v>544</v>
+        <v>587.79999999999995</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="0"/>
-        <v>0.83371647509578539</v>
+        <v>0.90084291187739451</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H56" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I56">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>468.73</v>
       </c>
       <c r="J56">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="K56">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>87</v>
       </c>
       <c r="L56">
         <f t="shared" si="2"/>
@@ -5106,28 +5107,28 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>1337</v>
       </c>
       <c r="O56">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>5348</v>
       </c>
       <c r="P56">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2.0624120000000001</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>86.905000000000001</v>
       </c>
       <c r="R56">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>80.22</v>
       </c>
       <c r="S56">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>167.125</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -5142,26 +5143,26 @@
       </c>
       <c r="D57">
         <f t="shared" si="15"/>
-        <v>566.1</v>
+        <v>609.9</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="0"/>
-        <v>0.86758620689655175</v>
+        <v>0.93471264367816087</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H57" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J57">
@@ -5169,7 +5170,7 @@
         <v>1250</v>
       </c>
       <c r="K57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L57">
@@ -5181,19 +5182,19 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P57">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R57">
@@ -5217,26 +5218,26 @@
       </c>
       <c r="D58">
         <f t="shared" si="15"/>
-        <v>588.20000000000005</v>
+        <v>632</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" si="0"/>
-        <v>0.9014559386973181</v>
+        <v>0.96858237547892723</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J58">
@@ -5244,7 +5245,7 @@
         <v>1250</v>
       </c>
       <c r="K58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L58">
@@ -5256,19 +5257,19 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R58">
@@ -5292,26 +5293,26 @@
       </c>
       <c r="D59">
         <f t="shared" si="15"/>
-        <v>610.29999999999995</v>
+        <v>652.5</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="0"/>
-        <v>0.93532567049808424</v>
+        <v>1</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>468.73</v>
       </c>
       <c r="J59">
@@ -5319,7 +5320,7 @@
         <v>1250</v>
       </c>
       <c r="K59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>87</v>
       </c>
       <c r="L59">
@@ -5331,19 +5332,19 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1337</v>
       </c>
       <c r="O59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5348</v>
       </c>
       <c r="P59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.0624120000000001</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>86.905000000000001</v>
       </c>
       <c r="R59">
@@ -5363,39 +5364,39 @@
         <v>87</v>
       </c>
       <c r="C60">
-        <v>22.125</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <f t="shared" si="15"/>
-        <v>632.4</v>
+        <v>652.5</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="0"/>
-        <v>0.96919540229885059</v>
+        <v>1</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I60">
-        <f t="shared" si="7"/>
-        <v>468.73</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="J60">
         <f t="shared" si="16"/>
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" si="8"/>
-        <v>87</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="L60">
         <f t="shared" si="2"/>
@@ -5406,28 +5407,28 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <f t="shared" si="9"/>
-        <v>1337</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="O60">
-        <f t="shared" si="10"/>
-        <v>5348</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="P60">
-        <f t="shared" si="11"/>
-        <v>2.0624120000000001</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="12"/>
-        <v>86.905000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R60">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -5438,7 +5439,7 @@
         <v>88</v>
       </c>
       <c r="C61">
-        <v>22.125</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <f t="shared" si="15"/>
@@ -5449,28 +5450,28 @@
         <v>1</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G61" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I61">
-        <f t="shared" si="7"/>
-        <v>468.73</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="J61">
         <f t="shared" si="16"/>
-        <v>1250</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" si="8"/>
-        <v>87</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="L61">
         <f t="shared" si="2"/>
@@ -5481,28 +5482,28 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <f t="shared" si="9"/>
-        <v>1337</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="O61">
-        <f t="shared" si="10"/>
-        <v>5348</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="P61">
-        <f t="shared" si="11"/>
-        <v>2.0624120000000001</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="12"/>
-        <v>86.905000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R61">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -5524,19 +5525,19 @@
         <v>1</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G62" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H62" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J62">
@@ -5544,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L62">
@@ -5556,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R62">
@@ -5599,19 +5600,19 @@
         <v>1</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G63" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H63" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J63">
@@ -5619,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L63">
@@ -5631,19 +5632,19 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R63">
@@ -5674,19 +5675,19 @@
         <v>1</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G64" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H64" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J64">
@@ -5694,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L64">
@@ -5706,19 +5707,19 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R64">
@@ -5749,19 +5750,19 @@
         <v>1</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H65" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J65">
@@ -5769,7 +5770,7 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L65">
@@ -5781,19 +5782,19 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R65">
@@ -5824,19 +5825,19 @@
         <v>1</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>wird nicht betankt</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>keine Nachtruhe</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>Elektrolyseur darf</v>
       </c>
       <c r="I66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J66">
@@ -5844,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L66">
@@ -5856,19 +5857,19 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="shared" ref="Q66:Q129" si="21">N66*$U$13+IF(O66=5346.94,$W$21,0)</f>
+        <f t="shared" ref="Q66:Q129" si="21">N66*$U$13+IF(O66=5348.94,$W$21,0)</f>
         <v>0</v>
       </c>
       <c r="R66">
@@ -10683,7 +10684,7 @@
         <v>2.0624120000000001</v>
       </c>
       <c r="Q130">
-        <f t="shared" ref="Q130:Q193" si="38">N130*$U$13+IF(O130=5346.94,$W$21,0)</f>
+        <f t="shared" ref="Q130:Q193" si="38">N130*$U$13+IF(O130=5348.94,$W$21,0)</f>
         <v>86.905000000000001</v>
       </c>
       <c r="R130">
@@ -15490,7 +15491,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <f t="shared" ref="Q194:Q257" si="54">N194*$U$13+IF(O194=5346.94,$W$21,0)</f>
+        <f t="shared" ref="Q194:Q257" si="54">N194*$U$13+IF(O194=5348.94,$W$21,0)</f>
         <v>0</v>
       </c>
       <c r="R194">
@@ -20297,7 +20298,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <f t="shared" ref="Q258:Q321" si="70">N258*$U$13+IF(O258=5346.94,$W$21,0)</f>
+        <f t="shared" ref="Q258:Q321" si="70">N258*$U$13+IF(O258=5348.94,$W$21,0)</f>
         <v>0</v>
       </c>
       <c r="R258">
@@ -25104,7 +25105,7 @@
         <v>2.0624120000000001</v>
       </c>
       <c r="Q322">
-        <f t="shared" ref="Q322:Q385" si="86">N322*$U$13+IF(O322=5346.94,$W$21,0)</f>
+        <f t="shared" ref="Q322:Q385" si="86">N322*$U$13+IF(O322=5348.94,$W$21,0)</f>
         <v>86.905000000000001</v>
       </c>
       <c r="R322">

--- a/Lastmanagement.xlsx
+++ b/Lastmanagement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenau\OneDrive\Projektmanagement\0400 Logistik\Lastmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e615c91372c03226/Desktop/Master Hda/3. Semester/Projektmanagement/0400 Logistik/Lastmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3936DBA-EB99-40D2-BF9A-87A99C437227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{B3936DBA-EB99-40D2-BF9A-87A99C437227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F0FDDCA-8E34-4814-96C8-8726698526A9}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-4510" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wasserstoff" sheetId="1" r:id="rId1"/>
@@ -795,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z389"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>5000</v>
+        <v>3500</v>
       </c>
       <c r="V4">
         <v>348</v>
@@ -1710,11 +1710,11 @@
       </c>
       <c r="V11">
         <f>SUM(U4:X4)</f>
-        <v>5448</v>
+        <v>3948</v>
       </c>
       <c r="W11" s="7">
         <f>U11*V11</f>
-        <v>281770.56</v>
+        <v>204190.56</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -2503,7 +2503,7 @@
       </c>
       <c r="W21" s="8">
         <f>W11/W19</f>
-        <v>48.083713310580201</v>
+        <v>34.844805460750855</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="J28">
         <f>IF(C28=22.125,$U$4*0.25,0)</f>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K28">
         <f t="shared" si="9"/>
@@ -3008,11 +3008,11 @@
       </c>
       <c r="N28">
         <f>SUM(J28:M28)</f>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O28">
         <f>ROUND(N28/0.25,2)</f>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P28">
         <f>I28*$U$8</f>
@@ -3020,15 +3020,15 @@
       </c>
       <c r="Q28">
         <f>N28*$U$13+IF(O28=5348.94,$W$21,0)</f>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R28">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S28">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="J29">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K29">
         <f>IF(J29&gt;0,$V$4*0.25,0)</f>
@@ -3083,11 +3083,11 @@
       </c>
       <c r="N29">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O29">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P29">
         <f t="shared" si="12"/>
@@ -3095,15 +3095,15 @@
       </c>
       <c r="Q29">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R29">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S29">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="J30">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K30">
         <f t="shared" si="9"/>
@@ -3158,11 +3158,11 @@
       </c>
       <c r="N30">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O30">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P30">
         <f t="shared" si="12"/>
@@ -3170,15 +3170,15 @@
       </c>
       <c r="Q30">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R30">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S30">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -3217,7 +3217,7 @@
       </c>
       <c r="J31">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K31">
         <f t="shared" si="9"/>
@@ -3233,11 +3233,11 @@
       </c>
       <c r="N31">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O31">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P31">
         <f t="shared" si="12"/>
@@ -3245,15 +3245,15 @@
       </c>
       <c r="Q31">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R31">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S31">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="J32">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K32">
         <f t="shared" si="9"/>
@@ -3308,11 +3308,11 @@
       </c>
       <c r="N32">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O32">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P32">
         <f t="shared" si="12"/>
@@ -3320,15 +3320,15 @@
       </c>
       <c r="Q32">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R32">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S32">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -3367,7 +3367,7 @@
       </c>
       <c r="J33">
         <f t="shared" si="1"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
@@ -3383,11 +3383,11 @@
       </c>
       <c r="N33">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O33">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P33">
         <f t="shared" si="12"/>
@@ -3395,15 +3395,15 @@
       </c>
       <c r="Q33">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R33">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S33">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="J34">
         <f t="shared" ref="J34:J65" si="16">IF(C34=22.125,$U$4*0.25,0)</f>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K34">
         <f t="shared" si="9"/>
@@ -3458,11 +3458,11 @@
       </c>
       <c r="N34">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O34">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P34">
         <f t="shared" si="12"/>
@@ -3470,15 +3470,15 @@
       </c>
       <c r="Q34">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R34">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S34">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="J35">
         <f t="shared" si="16"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K35">
         <f t="shared" si="9"/>
@@ -3533,11 +3533,11 @@
       </c>
       <c r="N35">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O35">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P35">
         <f t="shared" si="12"/>
@@ -3545,15 +3545,15 @@
       </c>
       <c r="Q35">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R35">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S35">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="J56">
         <f t="shared" si="16"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K56">
         <f t="shared" si="9"/>
@@ -5108,11 +5108,11 @@
       </c>
       <c r="N56">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O56">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P56">
         <f t="shared" si="12"/>
@@ -5120,15 +5120,15 @@
       </c>
       <c r="Q56">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R56">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S56">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -5167,7 +5167,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="16"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K57">
         <f t="shared" si="9"/>
@@ -5183,11 +5183,11 @@
       </c>
       <c r="N57">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O57">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P57">
         <f t="shared" si="12"/>
@@ -5195,15 +5195,15 @@
       </c>
       <c r="Q57">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R57">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S57">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="J58">
         <f t="shared" si="16"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K58">
         <f t="shared" si="9"/>
@@ -5258,11 +5258,11 @@
       </c>
       <c r="N58">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O58">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P58">
         <f t="shared" si="12"/>
@@ -5270,15 +5270,15 @@
       </c>
       <c r="Q58">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R58">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S58">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="J59">
         <f t="shared" si="16"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K59">
         <f t="shared" si="9"/>
@@ -5333,11 +5333,11 @@
       </c>
       <c r="N59">
         <f t="shared" si="10"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O59">
         <f t="shared" si="11"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P59">
         <f t="shared" si="12"/>
@@ -5345,15 +5345,15 @@
       </c>
       <c r="Q59">
         <f t="shared" si="4"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R59">
         <f t="shared" si="13"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S59">
         <f t="shared" si="14"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -7349,7 +7349,7 @@
       </c>
       <c r="J86">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K86">
         <f t="shared" si="26"/>
@@ -7365,11 +7365,11 @@
       </c>
       <c r="N86">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O86">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P86">
         <f t="shared" si="29"/>
@@ -7377,15 +7377,15 @@
       </c>
       <c r="Q86">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R86">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S86">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="J87">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K87">
         <f t="shared" si="26"/>
@@ -7440,11 +7440,11 @@
       </c>
       <c r="N87">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O87">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P87">
         <f t="shared" si="29"/>
@@ -7452,15 +7452,15 @@
       </c>
       <c r="Q87">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R87">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S87">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -7499,7 +7499,7 @@
       </c>
       <c r="J88">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K88">
         <f t="shared" si="26"/>
@@ -7515,11 +7515,11 @@
       </c>
       <c r="N88">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O88">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P88">
         <f t="shared" si="29"/>
@@ -7527,15 +7527,15 @@
       </c>
       <c r="Q88">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R88">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S88">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -7574,7 +7574,7 @@
       </c>
       <c r="J89">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K89">
         <f t="shared" si="26"/>
@@ -7590,11 +7590,11 @@
       </c>
       <c r="N89">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O89">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P89">
         <f t="shared" si="29"/>
@@ -7602,15 +7602,15 @@
       </c>
       <c r="Q89">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R89">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S89">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="J124">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K124">
         <f t="shared" si="26"/>
@@ -10223,11 +10223,11 @@
       </c>
       <c r="N124">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O124">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P124">
         <f t="shared" si="29"/>
@@ -10235,15 +10235,15 @@
       </c>
       <c r="Q124">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R124">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S124">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10282,7 +10282,7 @@
       </c>
       <c r="J125">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K125">
         <f t="shared" si="26"/>
@@ -10298,11 +10298,11 @@
       </c>
       <c r="N125">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O125">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P125">
         <f t="shared" si="29"/>
@@ -10310,15 +10310,15 @@
       </c>
       <c r="Q125">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R125">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S125">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10357,7 +10357,7 @@
       </c>
       <c r="J126">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K126">
         <f t="shared" si="26"/>
@@ -10373,11 +10373,11 @@
       </c>
       <c r="N126">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O126">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P126">
         <f t="shared" si="29"/>
@@ -10385,15 +10385,15 @@
       </c>
       <c r="Q126">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R126">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S126">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="J127">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K127">
         <f t="shared" si="26"/>
@@ -10448,11 +10448,11 @@
       </c>
       <c r="N127">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O127">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P127">
         <f t="shared" si="29"/>
@@ -10460,15 +10460,15 @@
       </c>
       <c r="Q127">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R127">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S127">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10507,7 +10507,7 @@
       </c>
       <c r="J128">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K128">
         <f t="shared" si="26"/>
@@ -10523,11 +10523,11 @@
       </c>
       <c r="N128">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O128">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P128">
         <f t="shared" si="29"/>
@@ -10535,15 +10535,15 @@
       </c>
       <c r="Q128">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R128">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S128">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="J129">
         <f t="shared" si="18"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K129">
         <f t="shared" si="26"/>
@@ -10598,11 +10598,11 @@
       </c>
       <c r="N129">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O129">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P129">
         <f t="shared" si="29"/>
@@ -10610,15 +10610,15 @@
       </c>
       <c r="Q129">
         <f t="shared" si="21"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R129">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S129">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="J130">
         <f t="shared" ref="J130:J193" si="35">IF(C130=22.125,$U$4*0.25,0)</f>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K130">
         <f t="shared" si="26"/>
@@ -10673,11 +10673,11 @@
       </c>
       <c r="N130">
         <f t="shared" si="27"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O130">
         <f t="shared" si="28"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P130">
         <f t="shared" si="29"/>
@@ -10685,15 +10685,15 @@
       </c>
       <c r="Q130">
         <f t="shared" ref="Q130:Q193" si="38">N130*$U$13+IF(O130=5348.94,$W$21,0)</f>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R130">
         <f t="shared" si="30"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S130">
         <f t="shared" si="31"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10735,7 +10735,7 @@
       </c>
       <c r="J131">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K131">
         <f t="shared" ref="K131:K194" si="42">IF(J131&gt;0,$V$4*0.25,0)</f>
@@ -10751,11 +10751,11 @@
       </c>
       <c r="N131">
         <f t="shared" ref="N131:N194" si="43">SUM(J131:M131)</f>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O131">
         <f t="shared" ref="O131:O194" si="44">ROUND(N131/0.25,2)</f>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P131">
         <f t="shared" ref="P131:P194" si="45">I131*$U$8</f>
@@ -10763,15 +10763,15 @@
       </c>
       <c r="Q131">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R131">
         <f t="shared" ref="R131:R194" si="46">N131*$U$16</f>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S131">
         <f t="shared" ref="S131:S194" si="47">SUM(Q131:R131)</f>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10810,7 +10810,7 @@
       </c>
       <c r="J132">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K132">
         <f t="shared" si="42"/>
@@ -10826,11 +10826,11 @@
       </c>
       <c r="N132">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O132">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P132">
         <f t="shared" si="45"/>
@@ -10838,15 +10838,15 @@
       </c>
       <c r="Q132">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R132">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S132">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10885,7 +10885,7 @@
       </c>
       <c r="J133">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K133">
         <f t="shared" si="42"/>
@@ -10901,11 +10901,11 @@
       </c>
       <c r="N133">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O133">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P133">
         <f t="shared" si="45"/>
@@ -10913,15 +10913,15 @@
       </c>
       <c r="Q133">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R133">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S133">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -10960,7 +10960,7 @@
       </c>
       <c r="J134">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K134">
         <f t="shared" si="42"/>
@@ -10976,11 +10976,11 @@
       </c>
       <c r="N134">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O134">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P134">
         <f t="shared" si="45"/>
@@ -10988,15 +10988,15 @@
       </c>
       <c r="Q134">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R134">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S134">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -11035,7 +11035,7 @@
       </c>
       <c r="J135">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K135">
         <f t="shared" si="42"/>
@@ -11051,11 +11051,11 @@
       </c>
       <c r="N135">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O135">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P135">
         <f t="shared" si="45"/>
@@ -11063,15 +11063,15 @@
       </c>
       <c r="Q135">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R135">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S135">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -12310,7 +12310,7 @@
       </c>
       <c r="J152">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K152">
         <f t="shared" si="42"/>
@@ -12326,11 +12326,11 @@
       </c>
       <c r="N152">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O152">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P152">
         <f t="shared" si="45"/>
@@ -12338,15 +12338,15 @@
       </c>
       <c r="Q152">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R152">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S152">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -12385,7 +12385,7 @@
       </c>
       <c r="J153">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K153">
         <f t="shared" si="42"/>
@@ -12401,11 +12401,11 @@
       </c>
       <c r="N153">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O153">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P153">
         <f t="shared" si="45"/>
@@ -12413,15 +12413,15 @@
       </c>
       <c r="Q153">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R153">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S153">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="J154">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K154">
         <f t="shared" si="42"/>
@@ -12476,11 +12476,11 @@
       </c>
       <c r="N154">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O154">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P154">
         <f t="shared" si="45"/>
@@ -12488,15 +12488,15 @@
       </c>
       <c r="Q154">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R154">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S154">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="J155">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K155">
         <f t="shared" si="42"/>
@@ -12551,11 +12551,11 @@
       </c>
       <c r="N155">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O155">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P155">
         <f t="shared" si="45"/>
@@ -12563,15 +12563,15 @@
       </c>
       <c r="Q155">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R155">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S155">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="J182">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K182">
         <f t="shared" si="42"/>
@@ -14580,11 +14580,11 @@
       </c>
       <c r="N182">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O182">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P182">
         <f t="shared" si="45"/>
@@ -14592,15 +14592,15 @@
       </c>
       <c r="Q182">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R182">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S182">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -14639,7 +14639,7 @@
       </c>
       <c r="J183">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K183">
         <f t="shared" si="42"/>
@@ -14655,11 +14655,11 @@
       </c>
       <c r="N183">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O183">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P183">
         <f t="shared" si="45"/>
@@ -14667,15 +14667,15 @@
       </c>
       <c r="Q183">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R183">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S183">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -14714,7 +14714,7 @@
       </c>
       <c r="J184">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K184">
         <f t="shared" si="42"/>
@@ -14730,11 +14730,11 @@
       </c>
       <c r="N184">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O184">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P184">
         <f t="shared" si="45"/>
@@ -14742,15 +14742,15 @@
       </c>
       <c r="Q184">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R184">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S184">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -14789,7 +14789,7 @@
       </c>
       <c r="J185">
         <f t="shared" si="35"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K185">
         <f t="shared" si="42"/>
@@ -14805,11 +14805,11 @@
       </c>
       <c r="N185">
         <f t="shared" si="43"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O185">
         <f t="shared" si="44"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P185">
         <f t="shared" si="45"/>
@@ -14817,15 +14817,15 @@
       </c>
       <c r="Q185">
         <f t="shared" si="38"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R185">
         <f t="shared" si="46"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S185">
         <f t="shared" si="47"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -21774,7 +21774,7 @@
       </c>
       <c r="J278">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K278">
         <f t="shared" si="74"/>
@@ -21790,11 +21790,11 @@
       </c>
       <c r="N278">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O278">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P278">
         <f t="shared" si="77"/>
@@ -21802,15 +21802,15 @@
       </c>
       <c r="Q278">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R278">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S278">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="J279">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K279">
         <f t="shared" si="74"/>
@@ -21865,11 +21865,11 @@
       </c>
       <c r="N279">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O279">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P279">
         <f t="shared" si="77"/>
@@ -21877,15 +21877,15 @@
       </c>
       <c r="Q279">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R279">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S279">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -21924,7 +21924,7 @@
       </c>
       <c r="J280">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K280">
         <f t="shared" si="74"/>
@@ -21940,11 +21940,11 @@
       </c>
       <c r="N280">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O280">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P280">
         <f t="shared" si="77"/>
@@ -21952,15 +21952,15 @@
       </c>
       <c r="Q280">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R280">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S280">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -21999,7 +21999,7 @@
       </c>
       <c r="J281">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K281">
         <f t="shared" si="74"/>
@@ -22015,11 +22015,11 @@
       </c>
       <c r="N281">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O281">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P281">
         <f t="shared" si="77"/>
@@ -22027,15 +22027,15 @@
       </c>
       <c r="Q281">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R281">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S281">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -24628,7 +24628,7 @@
       </c>
       <c r="J316">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K316">
         <f t="shared" si="74"/>
@@ -24644,11 +24644,11 @@
       </c>
       <c r="N316">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O316">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P316">
         <f t="shared" si="77"/>
@@ -24656,15 +24656,15 @@
       </c>
       <c r="Q316">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R316">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S316">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -24703,7 +24703,7 @@
       </c>
       <c r="J317">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K317">
         <f t="shared" si="74"/>
@@ -24719,11 +24719,11 @@
       </c>
       <c r="N317">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O317">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P317">
         <f t="shared" si="77"/>
@@ -24731,15 +24731,15 @@
       </c>
       <c r="Q317">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R317">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S317">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -24778,7 +24778,7 @@
       </c>
       <c r="J318">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K318">
         <f t="shared" si="74"/>
@@ -24794,11 +24794,11 @@
       </c>
       <c r="N318">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O318">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P318">
         <f t="shared" si="77"/>
@@ -24806,15 +24806,15 @@
       </c>
       <c r="Q318">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R318">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S318">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -24853,7 +24853,7 @@
       </c>
       <c r="J319">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K319">
         <f t="shared" si="74"/>
@@ -24869,11 +24869,11 @@
       </c>
       <c r="N319">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O319">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P319">
         <f t="shared" si="77"/>
@@ -24881,15 +24881,15 @@
       </c>
       <c r="Q319">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R319">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S319">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -24928,7 +24928,7 @@
       </c>
       <c r="J320">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K320">
         <f t="shared" si="74"/>
@@ -24944,11 +24944,11 @@
       </c>
       <c r="N320">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O320">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P320">
         <f t="shared" si="77"/>
@@ -24956,15 +24956,15 @@
       </c>
       <c r="Q320">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R320">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S320">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25003,7 +25003,7 @@
       </c>
       <c r="J321">
         <f t="shared" si="67"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K321">
         <f t="shared" si="74"/>
@@ -25019,11 +25019,11 @@
       </c>
       <c r="N321">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O321">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P321">
         <f t="shared" si="77"/>
@@ -25031,15 +25031,15 @@
       </c>
       <c r="Q321">
         <f t="shared" si="70"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R321">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S321">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25078,7 +25078,7 @@
       </c>
       <c r="J322">
         <f t="shared" ref="J322:J385" si="83">IF(C322=22.125,$U$4*0.25,0)</f>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K322">
         <f t="shared" si="74"/>
@@ -25094,11 +25094,11 @@
       </c>
       <c r="N322">
         <f t="shared" si="75"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O322">
         <f t="shared" si="76"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P322">
         <f t="shared" si="77"/>
@@ -25106,15 +25106,15 @@
       </c>
       <c r="Q322">
         <f t="shared" ref="Q322:Q385" si="86">N322*$U$13+IF(O322=5348.94,$W$21,0)</f>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R322">
         <f t="shared" si="78"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S322">
         <f t="shared" si="79"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="323" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25156,7 +25156,7 @@
       </c>
       <c r="J323">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K323">
         <f t="shared" ref="K323:K385" si="90">IF(J323&gt;0,$V$4*0.25,0)</f>
@@ -25172,11 +25172,11 @@
       </c>
       <c r="N323">
         <f t="shared" ref="N323:N385" si="91">SUM(J323:M323)</f>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O323">
         <f t="shared" ref="O323:O385" si="92">ROUND(N323/0.25,2)</f>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P323">
         <f t="shared" ref="P323:P385" si="93">I323*$U$8</f>
@@ -25184,15 +25184,15 @@
       </c>
       <c r="Q323">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R323">
         <f t="shared" ref="R323:R385" si="94">N323*$U$16</f>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S323">
         <f t="shared" ref="S323:S385" si="95">SUM(Q323:R323)</f>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25231,7 +25231,7 @@
       </c>
       <c r="J324">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K324">
         <f t="shared" si="90"/>
@@ -25247,11 +25247,11 @@
       </c>
       <c r="N324">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O324">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P324">
         <f t="shared" si="93"/>
@@ -25259,15 +25259,15 @@
       </c>
       <c r="Q324">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R324">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S324">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25306,7 +25306,7 @@
       </c>
       <c r="J325">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K325">
         <f t="shared" si="90"/>
@@ -25322,11 +25322,11 @@
       </c>
       <c r="N325">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O325">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P325">
         <f t="shared" si="93"/>
@@ -25334,15 +25334,15 @@
       </c>
       <c r="Q325">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R325">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S325">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25381,7 +25381,7 @@
       </c>
       <c r="J326">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K326">
         <f t="shared" si="90"/>
@@ -25397,11 +25397,11 @@
       </c>
       <c r="N326">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O326">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P326">
         <f t="shared" si="93"/>
@@ -25409,15 +25409,15 @@
       </c>
       <c r="Q326">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R326">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S326">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25456,7 +25456,7 @@
       </c>
       <c r="J327">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K327">
         <f t="shared" si="90"/>
@@ -25472,11 +25472,11 @@
       </c>
       <c r="N327">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O327">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P327">
         <f t="shared" si="93"/>
@@ -25484,15 +25484,15 @@
       </c>
       <c r="Q327">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R327">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S327">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25531,7 +25531,7 @@
       </c>
       <c r="J328">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K328">
         <f t="shared" si="90"/>
@@ -25547,11 +25547,11 @@
       </c>
       <c r="N328">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O328">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P328">
         <f t="shared" si="93"/>
@@ -25559,15 +25559,15 @@
       </c>
       <c r="Q328">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R328">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S328">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25606,7 +25606,7 @@
       </c>
       <c r="J329">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K329">
         <f t="shared" si="90"/>
@@ -25622,11 +25622,11 @@
       </c>
       <c r="N329">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O329">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P329">
         <f t="shared" si="93"/>
@@ -25634,15 +25634,15 @@
       </c>
       <c r="Q329">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R329">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S329">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25681,7 +25681,7 @@
       </c>
       <c r="J330">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K330">
         <f t="shared" si="90"/>
@@ -25697,11 +25697,11 @@
       </c>
       <c r="N330">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O330">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P330">
         <f t="shared" si="93"/>
@@ -25709,15 +25709,15 @@
       </c>
       <c r="Q330">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R330">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S330">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25756,7 +25756,7 @@
       </c>
       <c r="J331">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K331">
         <f t="shared" si="90"/>
@@ -25772,11 +25772,11 @@
       </c>
       <c r="N331">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O331">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P331">
         <f t="shared" si="93"/>
@@ -25784,15 +25784,15 @@
       </c>
       <c r="Q331">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R331">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S331">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25831,7 +25831,7 @@
       </c>
       <c r="J332">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K332">
         <f t="shared" si="90"/>
@@ -25847,11 +25847,11 @@
       </c>
       <c r="N332">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O332">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P332">
         <f t="shared" si="93"/>
@@ -25859,15 +25859,15 @@
       </c>
       <c r="Q332">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R332">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S332">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25906,7 +25906,7 @@
       </c>
       <c r="J333">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K333">
         <f t="shared" si="90"/>
@@ -25922,11 +25922,11 @@
       </c>
       <c r="N333">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O333">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P333">
         <f t="shared" si="93"/>
@@ -25934,15 +25934,15 @@
       </c>
       <c r="Q333">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R333">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S333">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -25981,7 +25981,7 @@
       </c>
       <c r="J334">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K334">
         <f t="shared" si="90"/>
@@ -25997,11 +25997,11 @@
       </c>
       <c r="N334">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O334">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P334">
         <f t="shared" si="93"/>
@@ -26009,15 +26009,15 @@
       </c>
       <c r="Q334">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R334">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S334">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -26056,7 +26056,7 @@
       </c>
       <c r="J335">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K335">
         <f t="shared" si="90"/>
@@ -26072,11 +26072,11 @@
       </c>
       <c r="N335">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O335">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P335">
         <f t="shared" si="93"/>
@@ -26084,15 +26084,15 @@
       </c>
       <c r="Q335">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R335">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S335">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -26131,7 +26131,7 @@
       </c>
       <c r="J336">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K336">
         <f t="shared" si="90"/>
@@ -26147,11 +26147,11 @@
       </c>
       <c r="N336">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O336">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P336">
         <f t="shared" si="93"/>
@@ -26159,15 +26159,15 @@
       </c>
       <c r="Q336">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R336">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S336">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -26206,7 +26206,7 @@
       </c>
       <c r="J337">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K337">
         <f t="shared" si="90"/>
@@ -26222,11 +26222,11 @@
       </c>
       <c r="N337">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O337">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P337">
         <f t="shared" si="93"/>
@@ -26234,15 +26234,15 @@
       </c>
       <c r="Q337">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R337">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S337">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -26281,7 +26281,7 @@
       </c>
       <c r="J338">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K338">
         <f t="shared" si="90"/>
@@ -26297,11 +26297,11 @@
       </c>
       <c r="N338">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O338">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P338">
         <f t="shared" si="93"/>
@@ -26309,15 +26309,15 @@
       </c>
       <c r="Q338">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R338">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S338">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -26356,7 +26356,7 @@
       </c>
       <c r="J339">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K339">
         <f t="shared" si="90"/>
@@ -26372,11 +26372,11 @@
       </c>
       <c r="N339">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O339">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P339">
         <f t="shared" si="93"/>
@@ -26384,15 +26384,15 @@
       </c>
       <c r="Q339">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R339">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S339">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -26731,7 +26731,7 @@
       </c>
       <c r="J344">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K344">
         <f t="shared" si="90"/>
@@ -26747,11 +26747,11 @@
       </c>
       <c r="N344">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O344">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P344">
         <f t="shared" si="93"/>
@@ -26759,15 +26759,15 @@
       </c>
       <c r="Q344">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R344">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S344">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -26806,7 +26806,7 @@
       </c>
       <c r="J345">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K345">
         <f t="shared" si="90"/>
@@ -26822,11 +26822,11 @@
       </c>
       <c r="N345">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O345">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P345">
         <f t="shared" si="93"/>
@@ -26834,15 +26834,15 @@
       </c>
       <c r="Q345">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R345">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S345">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -26881,7 +26881,7 @@
       </c>
       <c r="J346">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K346">
         <f t="shared" si="90"/>
@@ -26897,11 +26897,11 @@
       </c>
       <c r="N346">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O346">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P346">
         <f t="shared" si="93"/>
@@ -26909,15 +26909,15 @@
       </c>
       <c r="Q346">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R346">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S346">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -26956,7 +26956,7 @@
       </c>
       <c r="J347">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K347">
         <f t="shared" si="90"/>
@@ -26972,11 +26972,11 @@
       </c>
       <c r="N347">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O347">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P347">
         <f t="shared" si="93"/>
@@ -26984,15 +26984,15 @@
       </c>
       <c r="Q347">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R347">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S347">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -27031,7 +27031,7 @@
       </c>
       <c r="J348">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K348">
         <f t="shared" si="90"/>
@@ -27047,11 +27047,11 @@
       </c>
       <c r="N348">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O348">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P348">
         <f t="shared" si="93"/>
@@ -27059,15 +27059,15 @@
       </c>
       <c r="Q348">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R348">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S348">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="349" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -27106,7 +27106,7 @@
       </c>
       <c r="J349">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K349">
         <f t="shared" si="90"/>
@@ -27122,11 +27122,11 @@
       </c>
       <c r="N349">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O349">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P349">
         <f t="shared" si="93"/>
@@ -27134,15 +27134,15 @@
       </c>
       <c r="Q349">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R349">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S349">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="350" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -27181,7 +27181,7 @@
       </c>
       <c r="J350">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K350">
         <f t="shared" si="90"/>
@@ -27197,11 +27197,11 @@
       </c>
       <c r="N350">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O350">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P350">
         <f t="shared" si="93"/>
@@ -27209,15 +27209,15 @@
       </c>
       <c r="Q350">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R350">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S350">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="351" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -27256,7 +27256,7 @@
       </c>
       <c r="J351">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K351">
         <f t="shared" si="90"/>
@@ -27272,11 +27272,11 @@
       </c>
       <c r="N351">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O351">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P351">
         <f t="shared" si="93"/>
@@ -27284,15 +27284,15 @@
       </c>
       <c r="Q351">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R351">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S351">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="352" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -28985,7 +28985,7 @@
       </c>
       <c r="J374">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K374">
         <f t="shared" si="90"/>
@@ -29001,11 +29001,11 @@
       </c>
       <c r="N374">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O374">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P374">
         <f t="shared" si="93"/>
@@ -29013,15 +29013,15 @@
       </c>
       <c r="Q374">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R374">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S374">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="375" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -29060,7 +29060,7 @@
       </c>
       <c r="J375">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K375">
         <f t="shared" si="90"/>
@@ -29076,11 +29076,11 @@
       </c>
       <c r="N375">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O375">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P375">
         <f t="shared" si="93"/>
@@ -29088,15 +29088,15 @@
       </c>
       <c r="Q375">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R375">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S375">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="376" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -29135,7 +29135,7 @@
       </c>
       <c r="J376">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K376">
         <f t="shared" si="90"/>
@@ -29151,11 +29151,11 @@
       </c>
       <c r="N376">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O376">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P376">
         <f t="shared" si="93"/>
@@ -29163,15 +29163,15 @@
       </c>
       <c r="Q376">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R376">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S376">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="377" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -29210,7 +29210,7 @@
       </c>
       <c r="J377">
         <f t="shared" si="83"/>
-        <v>1250</v>
+        <v>875</v>
       </c>
       <c r="K377">
         <f t="shared" si="90"/>
@@ -29226,11 +29226,11 @@
       </c>
       <c r="N377">
         <f t="shared" si="91"/>
-        <v>1337</v>
+        <v>962</v>
       </c>
       <c r="O377">
         <f t="shared" si="92"/>
-        <v>5348</v>
+        <v>3848</v>
       </c>
       <c r="P377">
         <f t="shared" si="93"/>
@@ -29238,15 +29238,15 @@
       </c>
       <c r="Q377">
         <f t="shared" si="86"/>
-        <v>86.905000000000001</v>
+        <v>62.53</v>
       </c>
       <c r="R377">
         <f t="shared" si="94"/>
-        <v>80.22</v>
+        <v>57.72</v>
       </c>
       <c r="S377">
         <f t="shared" si="95"/>
-        <v>167.125</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="378" spans="1:19" x14ac:dyDescent="0.55000000000000004">
